--- a/teaching/traditional_assets/database/data/singapore/singapore_apparel.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_apparel.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="asx_gle" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,34 +593,31 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.04940000000000001</v>
+        <v>-0.08449999999999999</v>
       </c>
       <c r="G2">
-        <v>0.09697580645161291</v>
+        <v>0.0465483234714004</v>
       </c>
       <c r="H2">
-        <v>0.09697580645161291</v>
+        <v>0.0465483234714004</v>
       </c>
       <c r="I2">
-        <v>0.04913729609084341</v>
+        <v>0.01025641025641025</v>
       </c>
       <c r="J2">
-        <v>0.0320103271550205</v>
+        <v>0.008860439043795876</v>
       </c>
       <c r="K2">
-        <v>3.916999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07897177419354837</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.3590005099439062</v>
-      </c>
-      <c r="O2">
-        <v>1.797293847332142</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -626,83 +625,77 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
-        <v>7.04</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>18.09</v>
+        <v>17.22</v>
       </c>
       <c r="V2">
-        <v>0.9224885262621112</v>
+        <v>0.6535104364326375</v>
       </c>
       <c r="W2">
-        <v>0.09457862948746894</v>
+        <v>-0.03617314124003089</v>
       </c>
       <c r="X2">
-        <v>0.1446416268180788</v>
+        <v>0.14324975544176</v>
       </c>
       <c r="Y2">
-        <v>-0.05006299733060986</v>
+        <v>-0.1794228966817909</v>
       </c>
       <c r="Z2">
-        <v>1.29035780803531</v>
+        <v>1.056029993751302</v>
       </c>
       <c r="AA2">
-        <v>-1.002428021882045</v>
+        <v>0.1810943432555439</v>
       </c>
       <c r="AB2">
-        <v>0.05824763809433815</v>
+        <v>0.04950670976576862</v>
       </c>
       <c r="AC2">
-        <v>-1.060675659976383</v>
+        <v>0.1315876334897753</v>
       </c>
       <c r="AD2">
-        <v>26.2</v>
+        <v>23.8</v>
       </c>
       <c r="AE2">
-        <v>9.198950569470833</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>35.39895056947083</v>
+        <v>23.8</v>
       </c>
       <c r="AG2">
-        <v>17.30895056947083</v>
+        <v>6.580000000000002</v>
       </c>
       <c r="AH2">
-        <v>0.6435125593745963</v>
+        <v>0.4745762711864406</v>
       </c>
       <c r="AI2">
-        <v>0.4430465020775464</v>
+        <v>0.34</v>
       </c>
       <c r="AJ2">
-        <v>0.4688364729355016</v>
+        <v>0.1998177953234133</v>
       </c>
       <c r="AK2">
-        <v>0.2800395478324171</v>
+        <v>0.1246684350132626</v>
       </c>
       <c r="AL2">
-        <v>0.695</v>
+        <v>0.738</v>
       </c>
       <c r="AM2">
-        <v>0.1599999999999999</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="AN2">
-        <v>12.01834862385321</v>
+        <v>15.15923566878981</v>
       </c>
       <c r="AO2">
-        <v>4.571223021582735</v>
+        <v>0.7046070460704601</v>
       </c>
       <c r="AP2">
-        <v>7.93988558232607</v>
+        <v>4.191082802547771</v>
       </c>
       <c r="AQ2">
-        <v>19.85625000000001</v>
+        <v>-5.199999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +706,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Travelite Holdings Ltd. (SGX:BCZ)</t>
+          <t>Raffles Infrastructure Holdings Limited (SGX:LUY)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,26 +714,23 @@
           <t>Apparel</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.04940000000000001</v>
-      </c>
       <c r="G3">
-        <v>0.0390625</v>
+        <v>0.165</v>
       </c>
       <c r="H3">
-        <v>0.0390625</v>
+        <v>0.165</v>
       </c>
       <c r="I3">
-        <v>-0.0247746910591927</v>
+        <v>0.1963333333333333</v>
       </c>
       <c r="J3">
-        <v>-0.01238734552959635</v>
+        <v>0.1428885754583921</v>
       </c>
       <c r="K3">
-        <v>-0.103</v>
+        <v>4.61</v>
       </c>
       <c r="L3">
-        <v>-0.00321875</v>
+        <v>0.1536666666666667</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,7 +739,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,79 +748,76 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.69</v>
+        <v>14.3</v>
       </c>
       <c r="V3">
-        <v>0.6139767054908486</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="W3">
-        <v>-0.005988372093023255</v>
+        <v>0.2004347826086957</v>
       </c>
       <c r="X3">
-        <v>0.2336637551401386</v>
+        <v>0.04959776036154032</v>
       </c>
       <c r="Y3">
-        <v>-0.2396521272331619</v>
+        <v>0.1508370222471553</v>
       </c>
       <c r="Z3">
-        <v>0.805255285845011</v>
+        <v>3.488372093023256</v>
       </c>
       <c r="AA3">
-        <v>-0.00997497546529603</v>
+        <v>0.4984485190409026</v>
       </c>
       <c r="AB3">
-        <v>0.06087577769265733</v>
+        <v>0.04959776036154032</v>
       </c>
       <c r="AC3">
-        <v>-0.07085075315795336</v>
+        <v>0.4488507586793623</v>
       </c>
       <c r="AD3">
-        <v>26.2</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>9.198950569470833</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>35.39895056947083</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>31.70895056947083</v>
+        <v>-14.3</v>
       </c>
       <c r="AH3">
-        <v>0.8548622962584584</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.6483448894210847</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.8406636476025288</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="AK3">
-        <v>0.6228561031954587</v>
+        <v>-0.8411764705882353</v>
       </c>
       <c r="AL3">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.194</v>
+        <v>-0.836</v>
       </c>
       <c r="AN3">
-        <v>12.01834862385321</v>
-      </c>
-      <c r="AO3">
-        <v>-0.0762589928057554</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>14.54539016948203</v>
+        <v>-2.423728813559322</v>
       </c>
       <c r="AQ3">
-        <v>-0.2731958762886599</v>
+        <v>-7.045454545454545</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +828,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raffles Infrastructure Holdings Limited (SGX:LUY)</t>
+          <t>Travelite Holdings Ltd. (SGX:BCZ)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -849,32 +836,35 @@
           <t>Apparel</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.08449999999999999</v>
+      </c>
       <c r="G4">
-        <v>0.2022727272727273</v>
+        <v>-0.1251207729468599</v>
       </c>
       <c r="H4">
-        <v>0.2022727272727273</v>
+        <v>-0.1251207729468599</v>
       </c>
       <c r="I4">
-        <v>0.1835227272727273</v>
+        <v>-0.2594202898550725</v>
       </c>
       <c r="J4">
-        <v>0.1473491698175242</v>
+        <v>-0.2594202898550725</v>
       </c>
       <c r="K4">
-        <v>4.02</v>
+        <v>-4.61</v>
       </c>
       <c r="L4">
-        <v>0.2284090909090909</v>
+        <v>-0.2227053140096619</v>
       </c>
       <c r="M4">
-        <v>7.04</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.5176470588235295</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>1.751243781094528</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -883,73 +873,8794 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>7.04</v>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2.92</v>
+      </c>
+      <c r="V4">
+        <v>0.6870588235294117</v>
+      </c>
+      <c r="W4">
+        <v>-0.2727810650887574</v>
+      </c>
+      <c r="X4">
+        <v>0.2369017505219797</v>
+      </c>
+      <c r="Y4">
+        <v>-0.5096828156107371</v>
+      </c>
+      <c r="Z4">
+        <v>0.5252473991372748</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1362598325298148</v>
+      </c>
+      <c r="AB4">
+        <v>0.04941565916999692</v>
+      </c>
+      <c r="AC4">
+        <v>-0.1856754916998117</v>
+      </c>
+      <c r="AD4">
+        <v>23.8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>23.8</v>
+      </c>
+      <c r="AG4">
+        <v>20.88</v>
+      </c>
+      <c r="AH4">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="AI4">
+        <v>0.6149870801033591</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8308794269797055</v>
+      </c>
+      <c r="AK4">
+        <v>0.5835662381218558</v>
+      </c>
+      <c r="AL4">
+        <v>0.738</v>
+      </c>
+      <c r="AM4">
+        <v>0.736</v>
+      </c>
+      <c r="AN4">
+        <v>-5.496535796766744</v>
+      </c>
+      <c r="AO4">
+        <v>-7.276422764227642</v>
+      </c>
+      <c r="AP4">
+        <v>-4.822170900692841</v>
+      </c>
+      <c r="AQ4">
+        <v>-7.296195652173913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GLG Corp Ltd (ASX:GLE)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASX:GLE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apparel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>110.304732664474</v>
+      </c>
+      <c r="I2">
+        <v>63.59</v>
+      </c>
+      <c r="J2">
+        <v>102.694732664474</v>
+      </c>
+      <c r="K2">
+        <v>71.2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0248834</v>
+      </c>
+      <c r="N2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.0248834</v>
+      </c>
+      <c r="P2">
+        <v>0.013446</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ba1/BB+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0617831463057302</v>
+      </c>
+      <c r="T2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="U2">
+        <v>1.11193106579937</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.02998</v>
+      </c>
+      <c r="AD2">
+        <v>0.17</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>9.18</v>
+      </c>
+      <c r="AH2">
+        <v>3.62</v>
+      </c>
+      <c r="AI2">
+        <v>5.59</v>
+      </c>
+      <c r="AJ2">
+        <v>71.2</v>
+      </c>
+      <c r="AL2">
+        <v>1.52</v>
+      </c>
+      <c r="AM2">
+        <v>71.2</v>
+      </c>
+      <c r="AN2">
+        <v>7.61</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="C2">
+        <v>110.3047326644742</v>
+      </c>
+      <c r="D2">
+        <v>102.6947326644742</v>
+      </c>
+      <c r="E2">
+        <v>-71.2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>7.61</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>9.18</v>
+      </c>
+      <c r="K2">
+        <v>3.62</v>
+      </c>
+      <c r="L2">
+        <v>5.56</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>5.56</v>
+      </c>
+      <c r="O2">
+        <v>0.9452</v>
+      </c>
+      <c r="P2">
+        <v>4.6148</v>
+      </c>
+      <c r="Q2">
+        <v>8.2348</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.17</v>
+      </c>
+      <c r="W2">
+        <v>0.013446</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.009341459999999999</v>
+      </c>
+      <c r="C3">
+        <v>109.4249891339694</v>
+      </c>
+      <c r="D3">
+        <v>102.5269891339694</v>
+      </c>
+      <c r="E3">
+        <v>-70.488</v>
+      </c>
+      <c r="F3">
+        <v>0.7120000000000001</v>
+      </c>
+      <c r="G3">
+        <v>7.61</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>9.18</v>
+      </c>
+      <c r="K3">
+        <v>3.62</v>
+      </c>
+      <c r="L3">
+        <v>5.56</v>
+      </c>
+      <c r="M3">
+        <v>0.0115344</v>
+      </c>
+      <c r="N3">
+        <v>5.548465599999999</v>
+      </c>
+      <c r="O3">
+        <v>0.943239152</v>
+      </c>
+      <c r="P3">
+        <v>4.605226447999999</v>
+      </c>
+      <c r="Q3">
+        <v>8.225226447999999</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.17</v>
+      </c>
+      <c r="W3">
+        <v>0.013446</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>482.0363434595644</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.009382919999999999</v>
+      </c>
+      <c r="C4">
+        <v>108.5457927007749</v>
+      </c>
+      <c r="D4">
+        <v>102.3597927007749</v>
+      </c>
+      <c r="E4">
+        <v>-69.776</v>
+      </c>
+      <c r="F4">
+        <v>1.424</v>
+      </c>
+      <c r="G4">
+        <v>7.61</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9.18</v>
+      </c>
+      <c r="K4">
+        <v>3.62</v>
+      </c>
+      <c r="L4">
+        <v>5.56</v>
+      </c>
+      <c r="M4">
+        <v>0.0230688</v>
+      </c>
+      <c r="N4">
+        <v>5.5369312</v>
+      </c>
+      <c r="O4">
+        <v>0.941278304</v>
+      </c>
+      <c r="P4">
+        <v>4.595652896</v>
+      </c>
+      <c r="Q4">
+        <v>8.215652896</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.009299999999999999</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.17</v>
+      </c>
+      <c r="W4">
+        <v>0.013446</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>241.0181717297822</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.00942438</v>
+      </c>
+      <c r="C5">
+        <v>107.6671406927028</v>
+      </c>
+      <c r="D5">
+        <v>102.1931406927028</v>
+      </c>
+      <c r="E5">
+        <v>-69.06400000000001</v>
+      </c>
+      <c r="F5">
+        <v>2.136</v>
+      </c>
+      <c r="G5">
+        <v>7.61</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>9.18</v>
+      </c>
+      <c r="K5">
+        <v>3.62</v>
+      </c>
+      <c r="L5">
+        <v>5.56</v>
+      </c>
+      <c r="M5">
+        <v>0.0346032</v>
+      </c>
+      <c r="N5">
+        <v>5.525396799999999</v>
+      </c>
+      <c r="O5">
+        <v>0.9393174559999999</v>
+      </c>
+      <c r="P5">
+        <v>4.586079344</v>
+      </c>
+      <c r="Q5">
+        <v>8.206079343999999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.17</v>
+      </c>
+      <c r="W5">
+        <v>0.013446</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>160.6787811531881</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.009465839999999998</v>
+      </c>
+      <c r="C6">
+        <v>106.7890304549392</v>
+      </c>
+      <c r="D6">
+        <v>102.0270304549392</v>
+      </c>
+      <c r="E6">
+        <v>-68.352</v>
+      </c>
+      <c r="F6">
+        <v>2.848</v>
+      </c>
+      <c r="G6">
+        <v>7.61</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>9.18</v>
+      </c>
+      <c r="K6">
+        <v>3.62</v>
+      </c>
+      <c r="L6">
+        <v>5.56</v>
+      </c>
+      <c r="M6">
+        <v>0.0461376</v>
+      </c>
+      <c r="N6">
+        <v>5.5138624</v>
+      </c>
+      <c r="O6">
+        <v>0.9373566080000001</v>
+      </c>
+      <c r="P6">
+        <v>4.576505792</v>
+      </c>
+      <c r="Q6">
+        <v>8.196505792</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.17</v>
+      </c>
+      <c r="W6">
+        <v>0.013446</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>120.5090858648911</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.0095073</v>
+      </c>
+      <c r="C7">
+        <v>105.9114593499036</v>
+      </c>
+      <c r="D7">
+        <v>101.8614593499036</v>
+      </c>
+      <c r="E7">
+        <v>-67.64</v>
+      </c>
+      <c r="F7">
+        <v>3.56</v>
+      </c>
+      <c r="G7">
+        <v>7.61</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>9.18</v>
+      </c>
+      <c r="K7">
+        <v>3.62</v>
+      </c>
+      <c r="L7">
+        <v>5.56</v>
+      </c>
+      <c r="M7">
+        <v>0.05767200000000001</v>
+      </c>
+      <c r="N7">
+        <v>5.502327999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.93539576</v>
+      </c>
+      <c r="P7">
+        <v>4.56693224</v>
+      </c>
+      <c r="Q7">
+        <v>8.186932240000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.17</v>
+      </c>
+      <c r="W7">
+        <v>0.013446</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>96.40726869191286</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.009548759999999998</v>
+      </c>
+      <c r="C8">
+        <v>105.0344247571086</v>
+      </c>
+      <c r="D8">
+        <v>101.6964247571086</v>
+      </c>
+      <c r="E8">
+        <v>-66.928</v>
+      </c>
+      <c r="F8">
+        <v>4.272</v>
+      </c>
+      <c r="G8">
+        <v>7.61</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>9.18</v>
+      </c>
+      <c r="K8">
+        <v>3.62</v>
+      </c>
+      <c r="L8">
+        <v>5.56</v>
+      </c>
+      <c r="M8">
+        <v>0.0692064</v>
+      </c>
+      <c r="N8">
+        <v>5.4907936</v>
+      </c>
+      <c r="O8">
+        <v>0.9334349120000001</v>
+      </c>
+      <c r="P8">
+        <v>4.557358688</v>
+      </c>
+      <c r="Q8">
+        <v>8.177358688</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.17</v>
+      </c>
+      <c r="W8">
+        <v>0.013446</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>80.33939057659407</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.009590219999999998</v>
+      </c>
+      <c r="C9">
+        <v>104.1579240730224</v>
+      </c>
+      <c r="D9">
+        <v>101.5319240730224</v>
+      </c>
+      <c r="E9">
+        <v>-66.21600000000001</v>
+      </c>
+      <c r="F9">
+        <v>4.984000000000001</v>
+      </c>
+      <c r="G9">
+        <v>7.61</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>9.18</v>
+      </c>
+      <c r="K9">
+        <v>3.62</v>
+      </c>
+      <c r="L9">
+        <v>5.56</v>
+      </c>
+      <c r="M9">
+        <v>0.08074080000000002</v>
+      </c>
+      <c r="N9">
+        <v>5.4792592</v>
+      </c>
+      <c r="O9">
+        <v>0.931474064</v>
+      </c>
+      <c r="P9">
+        <v>4.547785136</v>
+      </c>
+      <c r="Q9">
+        <v>8.167785135999999</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.17</v>
+      </c>
+      <c r="W9">
+        <v>0.013446</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>68.86233477993775</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.00963168</v>
+      </c>
+      <c r="C10">
+        <v>103.2819547109313</v>
+      </c>
+      <c r="D10">
+        <v>101.3679547109313</v>
+      </c>
+      <c r="E10">
+        <v>-65.504</v>
+      </c>
+      <c r="F10">
+        <v>5.696000000000001</v>
+      </c>
+      <c r="G10">
+        <v>7.61</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9.18</v>
+      </c>
+      <c r="K10">
+        <v>3.62</v>
+      </c>
+      <c r="L10">
+        <v>5.56</v>
+      </c>
+      <c r="M10">
+        <v>0.0922752</v>
+      </c>
+      <c r="N10">
+        <v>5.467724799999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9295132159999999</v>
+      </c>
+      <c r="P10">
+        <v>4.538211583999999</v>
+      </c>
+      <c r="Q10">
+        <v>8.158211584</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.17</v>
+      </c>
+      <c r="W10">
+        <v>0.013446</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>60.25454293244555</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.00967314</v>
+      </c>
+      <c r="C11">
+        <v>102.4065141008045</v>
+      </c>
+      <c r="D11">
+        <v>101.2045141008045</v>
+      </c>
+      <c r="E11">
+        <v>-64.792</v>
+      </c>
+      <c r="F11">
+        <v>6.408</v>
+      </c>
+      <c r="G11">
+        <v>7.61</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>9.18</v>
+      </c>
+      <c r="K11">
+        <v>3.62</v>
+      </c>
+      <c r="L11">
+        <v>5.56</v>
+      </c>
+      <c r="M11">
+        <v>0.1038096</v>
+      </c>
+      <c r="N11">
+        <v>5.4561904</v>
+      </c>
+      <c r="O11">
+        <v>0.927552368</v>
+      </c>
+      <c r="P11">
+        <v>4.528638032</v>
+      </c>
+      <c r="Q11">
+        <v>8.148638032000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.17</v>
+      </c>
+      <c r="W11">
+        <v>0.013446</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>53.55959371772938</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.009714599999999999</v>
+      </c>
+      <c r="C12">
+        <v>101.5315996891595</v>
+      </c>
+      <c r="D12">
+        <v>101.0415996891595</v>
+      </c>
+      <c r="E12">
+        <v>-64.08</v>
+      </c>
+      <c r="F12">
+        <v>7.120000000000001</v>
+      </c>
+      <c r="G12">
+        <v>7.61</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>9.18</v>
+      </c>
+      <c r="K12">
+        <v>3.62</v>
+      </c>
+      <c r="L12">
+        <v>5.56</v>
+      </c>
+      <c r="M12">
+        <v>0.115344</v>
+      </c>
+      <c r="N12">
+        <v>5.444655999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.9255915199999999</v>
+      </c>
+      <c r="P12">
+        <v>4.519064479999999</v>
+      </c>
+      <c r="Q12">
+        <v>8.139064479999998</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.17</v>
+      </c>
+      <c r="W12">
+        <v>0.013446</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>48.20363434595643</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.009756059999999999</v>
+      </c>
+      <c r="C13">
+        <v>100.6572089389294</v>
+      </c>
+      <c r="D13">
+        <v>100.8792089389294</v>
+      </c>
+      <c r="E13">
+        <v>-63.368</v>
+      </c>
+      <c r="F13">
+        <v>7.832000000000001</v>
+      </c>
+      <c r="G13">
+        <v>7.61</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>9.18</v>
+      </c>
+      <c r="K13">
+        <v>3.62</v>
+      </c>
+      <c r="L13">
+        <v>5.56</v>
+      </c>
+      <c r="M13">
+        <v>0.1268784</v>
+      </c>
+      <c r="N13">
+        <v>5.4331216</v>
+      </c>
+      <c r="O13">
+        <v>0.923630672</v>
+      </c>
+      <c r="P13">
+        <v>4.509490928</v>
+      </c>
+      <c r="Q13">
+        <v>8.129490927999999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.17</v>
+      </c>
+      <c r="W13">
+        <v>0.013446</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>43.82148576905131</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.009797519999999999</v>
+      </c>
+      <c r="C14">
+        <v>99.78333932933117</v>
+      </c>
+      <c r="D14">
+        <v>100.7173393293312</v>
+      </c>
+      <c r="E14">
+        <v>-62.65600000000001</v>
+      </c>
+      <c r="F14">
+        <v>8.544</v>
+      </c>
+      <c r="G14">
+        <v>7.61</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9.18</v>
+      </c>
+      <c r="K14">
+        <v>3.62</v>
+      </c>
+      <c r="L14">
+        <v>5.56</v>
+      </c>
+      <c r="M14">
+        <v>0.1384128</v>
+      </c>
+      <c r="N14">
+        <v>5.421587199999999</v>
+      </c>
+      <c r="O14">
+        <v>0.921669824</v>
+      </c>
+      <c r="P14">
+        <v>4.499917375999999</v>
+      </c>
+      <c r="Q14">
+        <v>8.119917376</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.17</v>
+      </c>
+      <c r="W14">
+        <v>0.013446</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>40.16969528829703</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.009838979999999999</v>
+      </c>
+      <c r="C15">
+        <v>98.90998835573498</v>
+      </c>
+      <c r="D15">
+        <v>100.555988355735</v>
+      </c>
+      <c r="E15">
+        <v>-61.944</v>
+      </c>
+      <c r="F15">
+        <v>9.256</v>
+      </c>
+      <c r="G15">
+        <v>7.61</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9.18</v>
+      </c>
+      <c r="K15">
+        <v>3.62</v>
+      </c>
+      <c r="L15">
+        <v>5.56</v>
+      </c>
+      <c r="M15">
+        <v>0.1499472</v>
+      </c>
+      <c r="N15">
+        <v>5.4100528</v>
+      </c>
+      <c r="O15">
+        <v>0.919708976</v>
+      </c>
+      <c r="P15">
+        <v>4.490343824</v>
+      </c>
+      <c r="Q15">
+        <v>8.110343824000001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.17</v>
+      </c>
+      <c r="W15">
+        <v>0.013446</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>37.0797187276588</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.009880440000000001</v>
+      </c>
+      <c r="C16">
+        <v>98.03715352953527</v>
+      </c>
+      <c r="D16">
+        <v>100.3951535295353</v>
+      </c>
+      <c r="E16">
+        <v>-61.232</v>
+      </c>
+      <c r="F16">
+        <v>9.968000000000002</v>
+      </c>
+      <c r="G16">
+        <v>7.61</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>9.18</v>
+      </c>
+      <c r="K16">
+        <v>3.62</v>
+      </c>
+      <c r="L16">
+        <v>5.56</v>
+      </c>
+      <c r="M16">
+        <v>0.1614816</v>
+      </c>
+      <c r="N16">
+        <v>5.398518399999999</v>
+      </c>
+      <c r="O16">
+        <v>0.9177481279999999</v>
+      </c>
+      <c r="P16">
+        <v>4.480770271999999</v>
+      </c>
+      <c r="Q16">
+        <v>8.100770271999998</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.17</v>
+      </c>
+      <c r="W16">
+        <v>0.013446</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>34.43116738996888</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.009921899999999997</v>
+      </c>
+      <c r="C17">
+        <v>97.16483237802271</v>
+      </c>
+      <c r="D17">
+        <v>100.2348323780227</v>
+      </c>
+      <c r="E17">
+        <v>-60.52</v>
+      </c>
+      <c r="F17">
+        <v>10.68</v>
+      </c>
+      <c r="G17">
+        <v>7.61</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>9.18</v>
+      </c>
+      <c r="K17">
+        <v>3.62</v>
+      </c>
+      <c r="L17">
+        <v>5.56</v>
+      </c>
+      <c r="M17">
+        <v>0.173016</v>
+      </c>
+      <c r="N17">
+        <v>5.386984</v>
+      </c>
+      <c r="O17">
+        <v>0.9157872800000001</v>
+      </c>
+      <c r="P17">
+        <v>4.47119672</v>
+      </c>
+      <c r="Q17">
+        <v>8.091196719999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.17</v>
+      </c>
+      <c r="W17">
+        <v>0.013446</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>32.13575623063763</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.009963359999999999</v>
+      </c>
+      <c r="C18">
+        <v>96.29302244425746</v>
+      </c>
+      <c r="D18">
+        <v>100.0750224442575</v>
+      </c>
+      <c r="E18">
+        <v>-59.808</v>
+      </c>
+      <c r="F18">
+        <v>11.392</v>
+      </c>
+      <c r="G18">
+        <v>7.61</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>9.18</v>
+      </c>
+      <c r="K18">
+        <v>3.62</v>
+      </c>
+      <c r="L18">
+        <v>5.56</v>
+      </c>
+      <c r="M18">
+        <v>0.1845504</v>
+      </c>
+      <c r="N18">
+        <v>5.3754496</v>
+      </c>
+      <c r="O18">
+        <v>0.913826432</v>
+      </c>
+      <c r="P18">
+        <v>4.461623167999999</v>
+      </c>
+      <c r="Q18">
+        <v>8.081623168</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.17</v>
+      </c>
+      <c r="W18">
+        <v>0.013446</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>30.12727146622277</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.01000482</v>
+      </c>
+      <c r="C19">
+        <v>95.42172128694364</v>
+      </c>
+      <c r="D19">
+        <v>99.91572128694364</v>
+      </c>
+      <c r="E19">
+        <v>-59.096</v>
+      </c>
+      <c r="F19">
+        <v>12.104</v>
+      </c>
+      <c r="G19">
+        <v>7.61</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>9.18</v>
+      </c>
+      <c r="K19">
+        <v>3.62</v>
+      </c>
+      <c r="L19">
+        <v>5.56</v>
+      </c>
+      <c r="M19">
+        <v>0.1960848</v>
+      </c>
+      <c r="N19">
+        <v>5.363915199999999</v>
+      </c>
+      <c r="O19">
+        <v>0.911865584</v>
+      </c>
+      <c r="P19">
+        <v>4.452049615999999</v>
+      </c>
+      <c r="Q19">
+        <v>8.072049615999999</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.17</v>
+      </c>
+      <c r="W19">
+        <v>0.013446</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>28.3550790270332</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.01004628</v>
+      </c>
+      <c r="C20">
+        <v>94.55092648030511</v>
+      </c>
+      <c r="D20">
+        <v>99.75692648030511</v>
+      </c>
+      <c r="E20">
+        <v>-58.384</v>
+      </c>
+      <c r="F20">
+        <v>12.816</v>
+      </c>
+      <c r="G20">
+        <v>7.61</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>9.18</v>
+      </c>
+      <c r="K20">
+        <v>3.62</v>
+      </c>
+      <c r="L20">
+        <v>5.56</v>
+      </c>
+      <c r="M20">
+        <v>0.2076192</v>
+      </c>
+      <c r="N20">
+        <v>5.3523808</v>
+      </c>
+      <c r="O20">
+        <v>0.909904736</v>
+      </c>
+      <c r="P20">
+        <v>4.442476064</v>
+      </c>
+      <c r="Q20">
+        <v>8.062476064</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.17</v>
+      </c>
+      <c r="W20">
+        <v>0.013446</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>26.77979685886469</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.01008774</v>
+      </c>
+      <c r="C21">
+        <v>93.68063561396228</v>
+      </c>
+      <c r="D21">
+        <v>99.59863561396229</v>
+      </c>
+      <c r="E21">
+        <v>-57.672</v>
+      </c>
+      <c r="F21">
+        <v>13.528</v>
+      </c>
+      <c r="G21">
+        <v>7.61</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>9.18</v>
+      </c>
+      <c r="K21">
+        <v>3.62</v>
+      </c>
+      <c r="L21">
+        <v>5.56</v>
+      </c>
+      <c r="M21">
+        <v>0.2191536</v>
+      </c>
+      <c r="N21">
+        <v>5.340846399999999</v>
+      </c>
+      <c r="O21">
+        <v>0.9079438879999999</v>
+      </c>
+      <c r="P21">
+        <v>4.432902511999999</v>
+      </c>
+      <c r="Q21">
+        <v>8.052902511999999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.17</v>
+      </c>
+      <c r="W21">
+        <v>0.013446</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>25.37033386629286</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.0101292</v>
+      </c>
+      <c r="C22">
+        <v>92.81084629281011</v>
+      </c>
+      <c r="D22">
+        <v>99.44084629281012</v>
+      </c>
+      <c r="E22">
+        <v>-56.96</v>
+      </c>
+      <c r="F22">
+        <v>14.24</v>
+      </c>
+      <c r="G22">
+        <v>7.61</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>9.18</v>
+      </c>
+      <c r="K22">
+        <v>3.62</v>
+      </c>
+      <c r="L22">
+        <v>5.56</v>
+      </c>
+      <c r="M22">
+        <v>0.230688</v>
+      </c>
+      <c r="N22">
+        <v>5.329312</v>
+      </c>
+      <c r="O22">
+        <v>0.9059830400000001</v>
+      </c>
+      <c r="P22">
+        <v>4.42332896</v>
+      </c>
+      <c r="Q22">
+        <v>8.04332896</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.17</v>
+      </c>
+      <c r="W22">
+        <v>0.013446</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>24.10181717297822</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.01017066</v>
+      </c>
+      <c r="C23">
+        <v>91.9415561368974</v>
+      </c>
+      <c r="D23">
+        <v>99.2835561368974</v>
+      </c>
+      <c r="E23">
+        <v>-56.248</v>
+      </c>
+      <c r="F23">
+        <v>14.952</v>
+      </c>
+      <c r="G23">
+        <v>7.61</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>9.18</v>
+      </c>
+      <c r="K23">
+        <v>3.62</v>
+      </c>
+      <c r="L23">
+        <v>5.56</v>
+      </c>
+      <c r="M23">
+        <v>0.2422224</v>
+      </c>
+      <c r="N23">
+        <v>5.317777599999999</v>
+      </c>
+      <c r="O23">
+        <v>0.904022192</v>
+      </c>
+      <c r="P23">
+        <v>4.413755407999999</v>
+      </c>
+      <c r="Q23">
+        <v>8.033755407999999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.17</v>
+      </c>
+      <c r="W23">
+        <v>0.013446</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>22.95411159331259</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.01021212</v>
+      </c>
+      <c r="C24">
+        <v>91.07276278130703</v>
+      </c>
+      <c r="D24">
+        <v>99.12676278130704</v>
+      </c>
+      <c r="E24">
+        <v>-55.536</v>
+      </c>
+      <c r="F24">
+        <v>15.664</v>
+      </c>
+      <c r="G24">
+        <v>7.61</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>9.18</v>
+      </c>
+      <c r="K24">
+        <v>3.62</v>
+      </c>
+      <c r="L24">
+        <v>5.56</v>
+      </c>
+      <c r="M24">
+        <v>0.2537568</v>
+      </c>
+      <c r="N24">
+        <v>5.3062432</v>
+      </c>
+      <c r="O24">
+        <v>0.902061344</v>
+      </c>
+      <c r="P24">
+        <v>4.404181856</v>
+      </c>
+      <c r="Q24">
+        <v>8.024181856</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.17</v>
+      </c>
+      <c r="W24">
+        <v>0.013446</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>21.91074288452566</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.01025358</v>
+      </c>
+      <c r="C25">
+        <v>90.20446387603755</v>
+      </c>
+      <c r="D25">
+        <v>98.97046387603756</v>
+      </c>
+      <c r="E25">
+        <v>-54.824</v>
+      </c>
+      <c r="F25">
+        <v>16.376</v>
+      </c>
+      <c r="G25">
+        <v>7.61</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>9.18</v>
+      </c>
+      <c r="K25">
+        <v>3.62</v>
+      </c>
+      <c r="L25">
+        <v>5.56</v>
+      </c>
+      <c r="M25">
+        <v>0.2652912</v>
+      </c>
+      <c r="N25">
+        <v>5.2947088</v>
+      </c>
+      <c r="O25">
+        <v>0.900100496</v>
+      </c>
+      <c r="P25">
+        <v>4.394608303999999</v>
+      </c>
+      <c r="Q25">
+        <v>8.014608303999999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.17</v>
+      </c>
+      <c r="W25">
+        <v>0.013446</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>20.95810188954628</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.01029504</v>
+      </c>
+      <c r="C26">
+        <v>89.33665708588566</v>
+      </c>
+      <c r="D26">
+        <v>98.81465708588567</v>
+      </c>
+      <c r="E26">
+        <v>-54.112</v>
+      </c>
+      <c r="F26">
+        <v>17.088</v>
+      </c>
+      <c r="G26">
+        <v>7.61</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>9.18</v>
+      </c>
+      <c r="K26">
+        <v>3.62</v>
+      </c>
+      <c r="L26">
+        <v>5.56</v>
+      </c>
+      <c r="M26">
+        <v>0.2768256</v>
+      </c>
+      <c r="N26">
+        <v>5.2831744</v>
+      </c>
+      <c r="O26">
+        <v>0.8981396480000001</v>
+      </c>
+      <c r="P26">
+        <v>4.385034752</v>
+      </c>
+      <c r="Q26">
+        <v>8.005034752</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.17</v>
+      </c>
+      <c r="W26">
+        <v>0.013446</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>20.08484764414852</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0103365</v>
+      </c>
+      <c r="C27">
+        <v>88.46934009033001</v>
+      </c>
+      <c r="D27">
+        <v>98.65934009033001</v>
+      </c>
+      <c r="E27">
+        <v>-53.40000000000001</v>
+      </c>
+      <c r="F27">
+        <v>17.8</v>
+      </c>
+      <c r="G27">
+        <v>7.61</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>9.18</v>
+      </c>
+      <c r="K27">
+        <v>3.62</v>
+      </c>
+      <c r="L27">
+        <v>5.56</v>
+      </c>
+      <c r="M27">
+        <v>0.28836</v>
+      </c>
+      <c r="N27">
+        <v>5.27164</v>
+      </c>
+      <c r="O27">
+        <v>0.8961788000000001</v>
+      </c>
+      <c r="P27">
+        <v>4.375461199999999</v>
+      </c>
+      <c r="Q27">
+        <v>7.995461199999999</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.17</v>
+      </c>
+      <c r="W27">
+        <v>0.013446</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>19.28145373838258</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.01037796</v>
+      </c>
+      <c r="C28">
+        <v>87.60251058341585</v>
+      </c>
+      <c r="D28">
+        <v>98.50451058341585</v>
+      </c>
+      <c r="E28">
+        <v>-52.688</v>
+      </c>
+      <c r="F28">
+        <v>18.512</v>
+      </c>
+      <c r="G28">
+        <v>7.61</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>9.18</v>
+      </c>
+      <c r="K28">
+        <v>3.62</v>
+      </c>
+      <c r="L28">
+        <v>5.56</v>
+      </c>
+      <c r="M28">
+        <v>0.2998944</v>
+      </c>
+      <c r="N28">
+        <v>5.260105599999999</v>
+      </c>
+      <c r="O28">
+        <v>0.894217952</v>
+      </c>
+      <c r="P28">
+        <v>4.365887647999999</v>
+      </c>
+      <c r="Q28">
+        <v>7.985887647999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.17</v>
+      </c>
+      <c r="W28">
+        <v>0.013446</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>18.5398593638294</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.01041942</v>
+      </c>
+      <c r="C29">
+        <v>86.73616627364112</v>
+      </c>
+      <c r="D29">
+        <v>98.35016627364112</v>
+      </c>
+      <c r="E29">
+        <v>-51.976</v>
+      </c>
+      <c r="F29">
+        <v>19.224</v>
+      </c>
+      <c r="G29">
+        <v>7.61</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>9.18</v>
+      </c>
+      <c r="K29">
+        <v>3.62</v>
+      </c>
+      <c r="L29">
+        <v>5.56</v>
+      </c>
+      <c r="M29">
+        <v>0.3114288000000001</v>
+      </c>
+      <c r="N29">
+        <v>5.2485712</v>
+      </c>
+      <c r="O29">
+        <v>0.892257104</v>
+      </c>
+      <c r="P29">
+        <v>4.356314096</v>
+      </c>
+      <c r="Q29">
+        <v>7.976314096</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.17</v>
+      </c>
+      <c r="W29">
+        <v>0.013446</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>17.85319790590979</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.01046088</v>
+      </c>
+      <c r="C30">
+        <v>85.87030488384322</v>
+      </c>
+      <c r="D30">
+        <v>98.19630488384323</v>
+      </c>
+      <c r="E30">
+        <v>-51.264</v>
+      </c>
+      <c r="F30">
+        <v>19.936</v>
+      </c>
+      <c r="G30">
+        <v>7.61</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>9.18</v>
+      </c>
+      <c r="K30">
+        <v>3.62</v>
+      </c>
+      <c r="L30">
+        <v>5.56</v>
+      </c>
+      <c r="M30">
+        <v>0.3229632000000001</v>
+      </c>
+      <c r="N30">
+        <v>5.237036799999999</v>
+      </c>
+      <c r="O30">
+        <v>0.890296256</v>
+      </c>
+      <c r="P30">
+        <v>4.346740543999999</v>
+      </c>
+      <c r="Q30">
+        <v>7.966740543999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.17</v>
+      </c>
+      <c r="W30">
+        <v>0.013446</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>17.21558369498444</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.01050234</v>
+      </c>
+      <c r="C31">
+        <v>85.00492415108712</v>
+      </c>
+      <c r="D31">
+        <v>98.04292415108712</v>
+      </c>
+      <c r="E31">
+        <v>-50.55200000000001</v>
+      </c>
+      <c r="F31">
+        <v>20.648</v>
+      </c>
+      <c r="G31">
+        <v>7.61</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>9.18</v>
+      </c>
+      <c r="K31">
+        <v>3.62</v>
+      </c>
+      <c r="L31">
+        <v>5.56</v>
+      </c>
+      <c r="M31">
+        <v>0.3344976</v>
+      </c>
+      <c r="N31">
+        <v>5.2255024</v>
+      </c>
+      <c r="O31">
+        <v>0.888335408</v>
+      </c>
+      <c r="P31">
+        <v>4.337166992</v>
+      </c>
+      <c r="Q31">
+        <v>7.957166992</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.17</v>
+      </c>
+      <c r="W31">
+        <v>0.013446</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>16.62194287791602</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.0105438</v>
+      </c>
+      <c r="C32">
+        <v>84.14002182655435</v>
+      </c>
+      <c r="D32">
+        <v>97.89002182655435</v>
+      </c>
+      <c r="E32">
+        <v>-49.84</v>
+      </c>
+      <c r="F32">
+        <v>21.36</v>
+      </c>
+      <c r="G32">
+        <v>7.61</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>9.18</v>
+      </c>
+      <c r="K32">
+        <v>3.62</v>
+      </c>
+      <c r="L32">
+        <v>5.56</v>
+      </c>
+      <c r="M32">
+        <v>0.346032</v>
+      </c>
+      <c r="N32">
+        <v>5.213967999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.8863745599999999</v>
+      </c>
+      <c r="P32">
+        <v>4.327593439999999</v>
+      </c>
+      <c r="Q32">
+        <v>7.947593439999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.17</v>
+      </c>
+      <c r="W32">
+        <v>0.013446</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>16.06787811531881</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.01058526</v>
+      </c>
+      <c r="C33">
+        <v>83.27559567543315</v>
+      </c>
+      <c r="D33">
+        <v>97.73759567543316</v>
+      </c>
+      <c r="E33">
+        <v>-49.128</v>
+      </c>
+      <c r="F33">
+        <v>22.072</v>
+      </c>
+      <c r="G33">
+        <v>7.61</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>9.18</v>
+      </c>
+      <c r="K33">
+        <v>3.62</v>
+      </c>
+      <c r="L33">
+        <v>5.56</v>
+      </c>
+      <c r="M33">
+        <v>0.3575664</v>
+      </c>
+      <c r="N33">
+        <v>5.2024336</v>
+      </c>
+      <c r="O33">
+        <v>0.8844137120000001</v>
+      </c>
+      <c r="P33">
+        <v>4.318019888</v>
+      </c>
+      <c r="Q33">
+        <v>7.938019888</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.17</v>
+      </c>
+      <c r="W33">
+        <v>0.013446</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>15.54955946643756</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.01062672</v>
+      </c>
+      <c r="C34">
+        <v>82.41164347680956</v>
+      </c>
+      <c r="D34">
+        <v>97.58564347680957</v>
+      </c>
+      <c r="E34">
+        <v>-48.416</v>
+      </c>
+      <c r="F34">
+        <v>22.784</v>
+      </c>
+      <c r="G34">
+        <v>7.61</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>9.18</v>
+      </c>
+      <c r="K34">
+        <v>3.62</v>
+      </c>
+      <c r="L34">
+        <v>5.56</v>
+      </c>
+      <c r="M34">
+        <v>0.3691008</v>
+      </c>
+      <c r="N34">
+        <v>5.1908992</v>
+      </c>
+      <c r="O34">
+        <v>0.882452864</v>
+      </c>
+      <c r="P34">
+        <v>4.308446335999999</v>
+      </c>
+      <c r="Q34">
+        <v>7.928446335999999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.17</v>
+      </c>
+      <c r="W34">
+        <v>0.013446</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>15.06363573311139</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.01066818</v>
+      </c>
+      <c r="C35">
+        <v>81.54816302355957</v>
+      </c>
+      <c r="D35">
+        <v>97.43416302355958</v>
+      </c>
+      <c r="E35">
+        <v>-47.704</v>
+      </c>
+      <c r="F35">
+        <v>23.496</v>
+      </c>
+      <c r="G35">
+        <v>7.61</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>9.18</v>
+      </c>
+      <c r="K35">
+        <v>3.62</v>
+      </c>
+      <c r="L35">
+        <v>5.56</v>
+      </c>
+      <c r="M35">
+        <v>0.3806352</v>
+      </c>
+      <c r="N35">
+        <v>5.179364799999999</v>
+      </c>
+      <c r="O35">
+        <v>0.8804920159999999</v>
+      </c>
+      <c r="P35">
+        <v>4.298872783999999</v>
+      </c>
+      <c r="Q35">
+        <v>7.918872783999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.17</v>
+      </c>
+      <c r="W35">
+        <v>0.013446</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>14.6071619230171</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.01070964</v>
+      </c>
+      <c r="C36">
+        <v>80.68515212224226</v>
+      </c>
+      <c r="D36">
+        <v>97.28315212224226</v>
+      </c>
+      <c r="E36">
+        <v>-46.992</v>
+      </c>
+      <c r="F36">
+        <v>24.208</v>
+      </c>
+      <c r="G36">
+        <v>7.61</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>9.18</v>
+      </c>
+      <c r="K36">
+        <v>3.62</v>
+      </c>
+      <c r="L36">
+        <v>5.56</v>
+      </c>
+      <c r="M36">
+        <v>0.3921696</v>
+      </c>
+      <c r="N36">
+        <v>5.1678304</v>
+      </c>
+      <c r="O36">
+        <v>0.878531168</v>
+      </c>
+      <c r="P36">
+        <v>4.289299231999999</v>
+      </c>
+      <c r="Q36">
+        <v>7.909299232</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.17</v>
+      </c>
+      <c r="W36">
+        <v>0.013446</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>14.1775395135166</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.0107511</v>
+      </c>
+      <c r="C37">
+        <v>79.82260859299384</v>
+      </c>
+      <c r="D37">
+        <v>97.13260859299385</v>
+      </c>
+      <c r="E37">
+        <v>-46.28</v>
+      </c>
+      <c r="F37">
+        <v>24.92</v>
+      </c>
+      <c r="G37">
+        <v>7.61</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9.18</v>
+      </c>
+      <c r="K37">
+        <v>3.62</v>
+      </c>
+      <c r="L37">
+        <v>5.56</v>
+      </c>
+      <c r="M37">
+        <v>0.403704</v>
+      </c>
+      <c r="N37">
+        <v>5.156295999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.8765703199999999</v>
+      </c>
+      <c r="P37">
+        <v>4.279725679999999</v>
+      </c>
+      <c r="Q37">
+        <v>7.89972568</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.17</v>
+      </c>
+      <c r="W37">
+        <v>0.013446</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>13.77246695598755</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.01127064</v>
+      </c>
+      <c r="C38">
+        <v>77.26288015276783</v>
+      </c>
+      <c r="D38">
+        <v>95.28488015276784</v>
+      </c>
+      <c r="E38">
+        <v>-45.568</v>
+      </c>
+      <c r="F38">
+        <v>25.632</v>
+      </c>
+      <c r="G38">
+        <v>7.61</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9.18</v>
+      </c>
+      <c r="K38">
+        <v>3.62</v>
+      </c>
+      <c r="L38">
+        <v>5.56</v>
+      </c>
+      <c r="M38">
+        <v>0.4562496</v>
+      </c>
+      <c r="N38">
+        <v>5.103750399999999</v>
+      </c>
+      <c r="O38">
+        <v>0.8676375679999999</v>
+      </c>
+      <c r="P38">
+        <v>4.236112831999999</v>
+      </c>
+      <c r="Q38">
+        <v>7.856112831999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0.0178</v>
+      </c>
+      <c r="V38">
+        <v>0.17</v>
+      </c>
+      <c r="W38">
+        <v>0.014774</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>12.18631205375303</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.01132538</v>
+      </c>
+      <c r="C39">
+        <v>76.36028436044697</v>
+      </c>
+      <c r="D39">
+        <v>95.09428436044696</v>
+      </c>
+      <c r="E39">
+        <v>-44.856</v>
+      </c>
+      <c r="F39">
+        <v>26.344</v>
+      </c>
+      <c r="G39">
+        <v>7.61</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9.18</v>
+      </c>
+      <c r="K39">
+        <v>3.62</v>
+      </c>
+      <c r="L39">
+        <v>5.56</v>
+      </c>
+      <c r="M39">
+        <v>0.4689232</v>
+      </c>
+      <c r="N39">
+        <v>5.0910768</v>
+      </c>
+      <c r="O39">
+        <v>0.865483056</v>
+      </c>
+      <c r="P39">
+        <v>4.225593743999999</v>
+      </c>
+      <c r="Q39">
+        <v>7.845593743999999</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0.0178</v>
+      </c>
+      <c r="V39">
+        <v>0.17</v>
+      </c>
+      <c r="W39">
+        <v>0.014774</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>11.85695226851646</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.01138012</v>
+      </c>
+      <c r="C40">
+        <v>75.45844953329942</v>
+      </c>
+      <c r="D40">
+        <v>94.90444953329941</v>
+      </c>
+      <c r="E40">
+        <v>-44.14400000000001</v>
+      </c>
+      <c r="F40">
+        <v>27.056</v>
+      </c>
+      <c r="G40">
+        <v>7.61</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9.18</v>
+      </c>
+      <c r="K40">
+        <v>3.62</v>
+      </c>
+      <c r="L40">
+        <v>5.56</v>
+      </c>
+      <c r="M40">
+        <v>0.4815968</v>
+      </c>
+      <c r="N40">
+        <v>5.078403199999999</v>
+      </c>
+      <c r="O40">
+        <v>0.8633285439999999</v>
+      </c>
+      <c r="P40">
+        <v>4.215074656</v>
+      </c>
+      <c r="Q40">
+        <v>7.835074656</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.17</v>
+      </c>
+      <c r="W40">
+        <v>0.014774</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>11.54492720881866</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.01143486</v>
+      </c>
+      <c r="C41">
+        <v>74.55737112310582</v>
+      </c>
+      <c r="D41">
+        <v>94.71537112310583</v>
+      </c>
+      <c r="E41">
+        <v>-43.432</v>
+      </c>
+      <c r="F41">
+        <v>27.768</v>
+      </c>
+      <c r="G41">
+        <v>7.61</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9.18</v>
+      </c>
+      <c r="K41">
+        <v>3.62</v>
+      </c>
+      <c r="L41">
+        <v>5.56</v>
+      </c>
+      <c r="M41">
+        <v>0.4942704</v>
+      </c>
+      <c r="N41">
+        <v>5.065729599999999</v>
+      </c>
+      <c r="O41">
+        <v>0.8611740319999999</v>
+      </c>
+      <c r="P41">
+        <v>4.204555567999999</v>
+      </c>
+      <c r="Q41">
+        <v>7.824555567999999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.17</v>
+      </c>
+      <c r="W41">
+        <v>0.014774</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>11.24890343423357</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.0114896</v>
+      </c>
+      <c r="C42">
+        <v>73.65704461782047</v>
+      </c>
+      <c r="D42">
+        <v>94.52704461782048</v>
+      </c>
+      <c r="E42">
+        <v>-42.72</v>
+      </c>
+      <c r="F42">
+        <v>28.48</v>
+      </c>
+      <c r="G42">
+        <v>7.61</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>9.18</v>
+      </c>
+      <c r="K42">
+        <v>3.62</v>
+      </c>
+      <c r="L42">
+        <v>5.56</v>
+      </c>
+      <c r="M42">
+        <v>0.5069440000000001</v>
+      </c>
+      <c r="N42">
+        <v>5.053056</v>
+      </c>
+      <c r="O42">
+        <v>0.85901952</v>
+      </c>
+      <c r="P42">
+        <v>4.194036479999999</v>
+      </c>
+      <c r="Q42">
+        <v>7.81403648</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0.0178</v>
+      </c>
+      <c r="V42">
+        <v>0.17</v>
+      </c>
+      <c r="W42">
+        <v>0.014774</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>10.96768084837773</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.01154434</v>
+      </c>
+      <c r="C43">
+        <v>72.75746554121237</v>
+      </c>
+      <c r="D43">
+        <v>94.33946554121238</v>
+      </c>
+      <c r="E43">
+        <v>-42.008</v>
+      </c>
+      <c r="F43">
+        <v>29.192</v>
+      </c>
+      <c r="G43">
+        <v>7.61</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9.18</v>
+      </c>
+      <c r="K43">
+        <v>3.62</v>
+      </c>
+      <c r="L43">
+        <v>5.56</v>
+      </c>
+      <c r="M43">
+        <v>0.5196176</v>
+      </c>
+      <c r="N43">
+        <v>5.040382399999999</v>
+      </c>
+      <c r="O43">
+        <v>0.856865008</v>
+      </c>
+      <c r="P43">
+        <v>4.183517392</v>
+      </c>
+      <c r="Q43">
+        <v>7.803517392</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0.0178</v>
+      </c>
+      <c r="V43">
+        <v>0.17</v>
+      </c>
+      <c r="W43">
+        <v>0.014774</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>10.70017643744169</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.012366</v>
+      </c>
+      <c r="C44">
+        <v>69.31672657011326</v>
+      </c>
+      <c r="D44">
+        <v>91.61072657011326</v>
+      </c>
+      <c r="E44">
+        <v>-41.29600000000001</v>
+      </c>
+      <c r="F44">
+        <v>29.904</v>
+      </c>
+      <c r="G44">
+        <v>7.61</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>9.18</v>
+      </c>
+      <c r="K44">
+        <v>3.62</v>
+      </c>
+      <c r="L44">
+        <v>5.56</v>
+      </c>
+      <c r="M44">
+        <v>0.5980799999999999</v>
+      </c>
+      <c r="N44">
+        <v>4.961919999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.8435263999999999</v>
+      </c>
+      <c r="P44">
+        <v>4.118393599999999</v>
+      </c>
+      <c r="Q44">
+        <v>7.738393599999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0.17</v>
+      </c>
+      <c r="W44">
+        <v>0.0166</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>9.296415195291599</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.012439</v>
+      </c>
+      <c r="C45">
+        <v>68.3699087748633</v>
+      </c>
+      <c r="D45">
+        <v>91.3759087748633</v>
+      </c>
+      <c r="E45">
+        <v>-40.584</v>
+      </c>
+      <c r="F45">
+        <v>30.616</v>
+      </c>
+      <c r="G45">
+        <v>7.61</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>9.18</v>
+      </c>
+      <c r="K45">
+        <v>3.62</v>
+      </c>
+      <c r="L45">
+        <v>5.56</v>
+      </c>
+      <c r="M45">
+        <v>0.6123199999999999</v>
+      </c>
+      <c r="N45">
+        <v>4.94768</v>
+      </c>
+      <c r="O45">
+        <v>0.8411056000000001</v>
+      </c>
+      <c r="P45">
+        <v>4.1065744</v>
+      </c>
+      <c r="Q45">
+        <v>7.7265744</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0.17</v>
+      </c>
+      <c r="W45">
+        <v>0.0166</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>9.080219493075518</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.012512</v>
+      </c>
+      <c r="C46">
+        <v>67.42429167796723</v>
+      </c>
+      <c r="D46">
+        <v>91.14229167796724</v>
+      </c>
+      <c r="E46">
+        <v>-39.872</v>
+      </c>
+      <c r="F46">
+        <v>31.328</v>
+      </c>
+      <c r="G46">
+        <v>7.61</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>9.18</v>
+      </c>
+      <c r="K46">
+        <v>3.62</v>
+      </c>
+      <c r="L46">
+        <v>5.56</v>
+      </c>
+      <c r="M46">
+        <v>0.62656</v>
+      </c>
+      <c r="N46">
+        <v>4.933439999999999</v>
+      </c>
+      <c r="O46">
+        <v>0.8386847999999999</v>
+      </c>
+      <c r="P46">
+        <v>4.094755199999999</v>
+      </c>
+      <c r="Q46">
+        <v>7.714755199999999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.17</v>
+      </c>
+      <c r="W46">
+        <v>0.0166</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>8.873850868232889</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.012585</v>
+      </c>
+      <c r="C47">
+        <v>66.47986609357912</v>
+      </c>
+      <c r="D47">
+        <v>90.90986609357913</v>
+      </c>
+      <c r="E47">
+        <v>-39.16</v>
+      </c>
+      <c r="F47">
+        <v>32.04</v>
+      </c>
+      <c r="G47">
+        <v>7.61</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>9.18</v>
+      </c>
+      <c r="K47">
+        <v>3.62</v>
+      </c>
+      <c r="L47">
+        <v>5.56</v>
+      </c>
+      <c r="M47">
+        <v>0.6407999999999999</v>
+      </c>
+      <c r="N47">
+        <v>4.9192</v>
+      </c>
+      <c r="O47">
+        <v>0.8362640000000001</v>
+      </c>
+      <c r="P47">
+        <v>4.082936</v>
+      </c>
+      <c r="Q47">
+        <v>7.702936</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.17</v>
+      </c>
+      <c r="W47">
+        <v>0.0166</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>8.676654182272161</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.012658</v>
+      </c>
+      <c r="C48">
+        <v>65.53662292931546</v>
+      </c>
+      <c r="D48">
+        <v>90.67862292931545</v>
+      </c>
+      <c r="E48">
+        <v>-38.448</v>
+      </c>
+      <c r="F48">
+        <v>32.752</v>
+      </c>
+      <c r="G48">
+        <v>7.61</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>9.18</v>
+      </c>
+      <c r="K48">
+        <v>3.62</v>
+      </c>
+      <c r="L48">
+        <v>5.56</v>
+      </c>
+      <c r="M48">
+        <v>0.65504</v>
+      </c>
+      <c r="N48">
+        <v>4.90496</v>
+      </c>
+      <c r="O48">
+        <v>0.8338432</v>
+      </c>
+      <c r="P48">
+        <v>4.0711168</v>
+      </c>
+      <c r="Q48">
+        <v>7.691116800000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.17</v>
+      </c>
+      <c r="W48">
+        <v>0.0166</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>8.488031265266244</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.012731</v>
+      </c>
+      <c r="C49">
+        <v>64.59455318506949</v>
+      </c>
+      <c r="D49">
+        <v>90.44855318506949</v>
+      </c>
+      <c r="E49">
+        <v>-37.736</v>
+      </c>
+      <c r="F49">
+        <v>33.46400000000001</v>
+      </c>
+      <c r="G49">
+        <v>7.61</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>9.18</v>
+      </c>
+      <c r="K49">
+        <v>3.62</v>
+      </c>
+      <c r="L49">
+        <v>5.56</v>
+      </c>
+      <c r="M49">
+        <v>0.66928</v>
+      </c>
+      <c r="N49">
+        <v>4.89072</v>
+      </c>
+      <c r="O49">
+        <v>0.8314224</v>
+      </c>
+      <c r="P49">
+        <v>4.0592976</v>
+      </c>
+      <c r="Q49">
+        <v>7.6792976</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.17</v>
+      </c>
+      <c r="W49">
+        <v>0.0166</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>8.307434855366962</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.012804</v>
+      </c>
+      <c r="C50">
+        <v>63.65364795184354</v>
+      </c>
+      <c r="D50">
+        <v>90.21964795184354</v>
+      </c>
+      <c r="E50">
+        <v>-37.024</v>
+      </c>
+      <c r="F50">
+        <v>34.176</v>
+      </c>
+      <c r="G50">
+        <v>7.61</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>9.18</v>
+      </c>
+      <c r="K50">
+        <v>3.62</v>
+      </c>
+      <c r="L50">
+        <v>5.56</v>
+      </c>
+      <c r="M50">
+        <v>0.6835199999999999</v>
+      </c>
+      <c r="N50">
+        <v>4.87648</v>
+      </c>
+      <c r="O50">
+        <v>0.8290016</v>
+      </c>
+      <c r="P50">
+        <v>4.0474784</v>
+      </c>
+      <c r="Q50">
+        <v>7.6674784</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0.02</v>
+      </c>
+      <c r="V50">
+        <v>0.17</v>
+      </c>
+      <c r="W50">
+        <v>0.0166</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>8.134363295880151</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.012877</v>
+      </c>
+      <c r="C51">
+        <v>62.71389841059908</v>
+      </c>
+      <c r="D51">
+        <v>89.99189841059908</v>
+      </c>
+      <c r="E51">
+        <v>-36.312</v>
+      </c>
+      <c r="F51">
+        <v>34.888</v>
+      </c>
+      <c r="G51">
+        <v>7.61</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>9.18</v>
+      </c>
+      <c r="K51">
+        <v>3.62</v>
+      </c>
+      <c r="L51">
+        <v>5.56</v>
+      </c>
+      <c r="M51">
+        <v>0.6977599999999998</v>
+      </c>
+      <c r="N51">
+        <v>4.86224</v>
+      </c>
+      <c r="O51">
+        <v>0.8265808</v>
+      </c>
+      <c r="P51">
+        <v>4.0356592</v>
+      </c>
+      <c r="Q51">
+        <v>7.6556592</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0.02</v>
+      </c>
+      <c r="V51">
+        <v>0.17</v>
+      </c>
+      <c r="W51">
+        <v>0.0166</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>7.968355881678516</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.0134065</v>
+      </c>
+      <c r="C52">
+        <v>60.38373382720686</v>
+      </c>
+      <c r="D52">
+        <v>88.37373382720686</v>
+      </c>
+      <c r="E52">
+        <v>-35.6</v>
+      </c>
+      <c r="F52">
+        <v>35.6</v>
+      </c>
+      <c r="G52">
+        <v>7.61</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>9.18</v>
+      </c>
+      <c r="K52">
+        <v>3.62</v>
+      </c>
+      <c r="L52">
+        <v>5.56</v>
+      </c>
+      <c r="M52">
+        <v>0.75116</v>
+      </c>
+      <c r="N52">
+        <v>4.80884</v>
+      </c>
+      <c r="O52">
+        <v>0.8175028000000001</v>
+      </c>
+      <c r="P52">
+        <v>3.9913372</v>
+      </c>
+      <c r="Q52">
+        <v>7.611337199999999</v>
+      </c>
+      <c r="R52">
         <v>1</v>
       </c>
-      <c r="U4">
-        <v>14.4</v>
-      </c>
-      <c r="V4">
-        <v>1.058823529411765</v>
-      </c>
-      <c r="W4">
-        <v>0.1951456310679611</v>
-      </c>
-      <c r="X4">
-        <v>0.05561949849601897</v>
-      </c>
-      <c r="Y4">
-        <v>0.1395261325719422</v>
-      </c>
-      <c r="Z4">
-        <v>-13.53846153846157</v>
-      </c>
-      <c r="AA4">
-        <v>-1.994881068298794</v>
-      </c>
-      <c r="AB4">
-        <v>0.05561949849601897</v>
-      </c>
-      <c r="AC4">
-        <v>-2.050500566794813</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>-14.4</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>17.99999999999999</v>
-      </c>
-      <c r="AK4">
-        <v>-1.321100917431193</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>-0.034</v>
-      </c>
-      <c r="AQ4">
-        <v>-94.99999999999999</v>
+      <c r="S52">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0.0211</v>
+      </c>
+      <c r="V52">
+        <v>0.17</v>
+      </c>
+      <c r="W52">
+        <v>0.017513</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>7.40188508440279</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.01348863</v>
+      </c>
+      <c r="C53">
+        <v>59.42594125120147</v>
+      </c>
+      <c r="D53">
+        <v>88.12794125120148</v>
+      </c>
+      <c r="E53">
+        <v>-34.888</v>
+      </c>
+      <c r="F53">
+        <v>36.312</v>
+      </c>
+      <c r="G53">
+        <v>7.61</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>9.18</v>
+      </c>
+      <c r="K53">
+        <v>3.62</v>
+      </c>
+      <c r="L53">
+        <v>5.56</v>
+      </c>
+      <c r="M53">
+        <v>0.7661832000000002</v>
+      </c>
+      <c r="N53">
+        <v>4.793816799999999</v>
+      </c>
+      <c r="O53">
+        <v>0.8149488559999999</v>
+      </c>
+      <c r="P53">
+        <v>3.978867943999999</v>
+      </c>
+      <c r="Q53">
+        <v>7.598867943999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0.0211</v>
+      </c>
+      <c r="V53">
+        <v>0.17</v>
+      </c>
+      <c r="W53">
+        <v>0.017513</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>7.256750082747831</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.01357076</v>
+      </c>
+      <c r="C54">
+        <v>58.46951212167053</v>
+      </c>
+      <c r="D54">
+        <v>87.88351212167053</v>
+      </c>
+      <c r="E54">
+        <v>-34.176</v>
+      </c>
+      <c r="F54">
+        <v>37.024</v>
+      </c>
+      <c r="G54">
+        <v>7.61</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>9.18</v>
+      </c>
+      <c r="K54">
+        <v>3.62</v>
+      </c>
+      <c r="L54">
+        <v>5.56</v>
+      </c>
+      <c r="M54">
+        <v>0.7812064000000001</v>
+      </c>
+      <c r="N54">
+        <v>4.778793599999999</v>
+      </c>
+      <c r="O54">
+        <v>0.8123949119999999</v>
+      </c>
+      <c r="P54">
+        <v>3.966398688</v>
+      </c>
+      <c r="Q54">
+        <v>7.586398687999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0.0211</v>
+      </c>
+      <c r="V54">
+        <v>0.17</v>
+      </c>
+      <c r="W54">
+        <v>0.017513</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>7.117197196541143</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.01365289</v>
+      </c>
+      <c r="C55">
+        <v>57.51443512514462</v>
+      </c>
+      <c r="D55">
+        <v>87.64043512514462</v>
+      </c>
+      <c r="E55">
+        <v>-33.464</v>
+      </c>
+      <c r="F55">
+        <v>37.736</v>
+      </c>
+      <c r="G55">
+        <v>7.61</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>9.18</v>
+      </c>
+      <c r="K55">
+        <v>3.62</v>
+      </c>
+      <c r="L55">
+        <v>5.56</v>
+      </c>
+      <c r="M55">
+        <v>0.7962296000000001</v>
+      </c>
+      <c r="N55">
+        <v>4.763770399999999</v>
+      </c>
+      <c r="O55">
+        <v>0.8098409679999999</v>
+      </c>
+      <c r="P55">
+        <v>3.953929431999999</v>
+      </c>
+      <c r="Q55">
+        <v>7.573929432</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0.0211</v>
+      </c>
+      <c r="V55">
+        <v>0.17</v>
+      </c>
+      <c r="W55">
+        <v>0.017513</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>6.982910456983763</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.01373502</v>
+      </c>
+      <c r="C56">
+        <v>56.56069907297685</v>
+      </c>
+      <c r="D56">
+        <v>87.39869907297685</v>
+      </c>
+      <c r="E56">
+        <v>-32.752</v>
+      </c>
+      <c r="F56">
+        <v>38.44800000000001</v>
+      </c>
+      <c r="G56">
+        <v>7.61</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>9.18</v>
+      </c>
+      <c r="K56">
+        <v>3.62</v>
+      </c>
+      <c r="L56">
+        <v>5.56</v>
+      </c>
+      <c r="M56">
+        <v>0.8112528000000002</v>
+      </c>
+      <c r="N56">
+        <v>4.7487472</v>
+      </c>
+      <c r="O56">
+        <v>0.807287024</v>
+      </c>
+      <c r="P56">
+        <v>3.941460176</v>
+      </c>
+      <c r="Q56">
+        <v>7.561460176</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.17</v>
+      </c>
+      <c r="W56">
+        <v>0.017513</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>6.853597300372952</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.01381715</v>
+      </c>
+      <c r="C57">
+        <v>55.60829289962602</v>
+      </c>
+      <c r="D57">
+        <v>87.15829289962602</v>
+      </c>
+      <c r="E57">
+        <v>-32.04</v>
+      </c>
+      <c r="F57">
+        <v>39.16</v>
+      </c>
+      <c r="G57">
+        <v>7.61</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>9.18</v>
+      </c>
+      <c r="K57">
+        <v>3.62</v>
+      </c>
+      <c r="L57">
+        <v>5.56</v>
+      </c>
+      <c r="M57">
+        <v>0.8262760000000001</v>
+      </c>
+      <c r="N57">
+        <v>4.733724</v>
+      </c>
+      <c r="O57">
+        <v>0.80473308</v>
+      </c>
+      <c r="P57">
+        <v>3.928990919999999</v>
+      </c>
+      <c r="Q57">
+        <v>7.54899092</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0.0211</v>
+      </c>
+      <c r="V57">
+        <v>0.17</v>
+      </c>
+      <c r="W57">
+        <v>0.017513</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>6.728986440366172</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.01389928</v>
+      </c>
+      <c r="C58">
+        <v>54.65720566096815</v>
+      </c>
+      <c r="D58">
+        <v>86.91920566096816</v>
+      </c>
+      <c r="E58">
+        <v>-31.328</v>
+      </c>
+      <c r="F58">
+        <v>39.87200000000001</v>
+      </c>
+      <c r="G58">
+        <v>7.61</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>9.18</v>
+      </c>
+      <c r="K58">
+        <v>3.62</v>
+      </c>
+      <c r="L58">
+        <v>5.56</v>
+      </c>
+      <c r="M58">
+        <v>0.8412992000000001</v>
+      </c>
+      <c r="N58">
+        <v>4.7187008</v>
+      </c>
+      <c r="O58">
+        <v>0.802179136</v>
+      </c>
+      <c r="P58">
+        <v>3.916521664</v>
+      </c>
+      <c r="Q58">
+        <v>7.536521664</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0.0211</v>
+      </c>
+      <c r="V58">
+        <v>0.17</v>
+      </c>
+      <c r="W58">
+        <v>0.017513</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>6.608825968216776</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.01398141</v>
+      </c>
+      <c r="C59">
+        <v>53.70742653263576</v>
+      </c>
+      <c r="D59">
+        <v>86.68142653263577</v>
+      </c>
+      <c r="E59">
+        <v>-30.616</v>
+      </c>
+      <c r="F59">
+        <v>40.584</v>
+      </c>
+      <c r="G59">
+        <v>7.61</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>9.18</v>
+      </c>
+      <c r="K59">
+        <v>3.62</v>
+      </c>
+      <c r="L59">
+        <v>5.56</v>
+      </c>
+      <c r="M59">
+        <v>0.8563224000000002</v>
+      </c>
+      <c r="N59">
+        <v>4.7036776</v>
+      </c>
+      <c r="O59">
+        <v>0.799625192</v>
+      </c>
+      <c r="P59">
+        <v>3.904052408</v>
+      </c>
+      <c r="Q59">
+        <v>7.524052407999999</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0.0211</v>
+      </c>
+      <c r="V59">
+        <v>0.17</v>
+      </c>
+      <c r="W59">
+        <v>0.017513</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>6.492881652984902</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.01478564</v>
+      </c>
+      <c r="C60">
+        <v>50.73400358508561</v>
+      </c>
+      <c r="D60">
+        <v>84.42000358508561</v>
+      </c>
+      <c r="E60">
+        <v>-29.904</v>
+      </c>
+      <c r="F60">
+        <v>41.296</v>
+      </c>
+      <c r="G60">
+        <v>7.61</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>9.18</v>
+      </c>
+      <c r="K60">
+        <v>3.62</v>
+      </c>
+      <c r="L60">
+        <v>5.56</v>
+      </c>
+      <c r="M60">
+        <v>0.9332895999999999</v>
+      </c>
+      <c r="N60">
+        <v>4.626710399999999</v>
+      </c>
+      <c r="O60">
+        <v>0.7865407679999999</v>
+      </c>
+      <c r="P60">
+        <v>3.840169631999999</v>
+      </c>
+      <c r="Q60">
+        <v>7.460169631999999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0.0226</v>
+      </c>
+      <c r="V60">
+        <v>0.17</v>
+      </c>
+      <c r="W60">
+        <v>0.018758</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>5.957422004916801</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.01488022</v>
+      </c>
+      <c r="C61">
+        <v>49.76378368057775</v>
+      </c>
+      <c r="D61">
+        <v>84.16178368057776</v>
+      </c>
+      <c r="E61">
+        <v>-29.192</v>
+      </c>
+      <c r="F61">
+        <v>42.008</v>
+      </c>
+      <c r="G61">
+        <v>7.61</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>9.18</v>
+      </c>
+      <c r="K61">
+        <v>3.62</v>
+      </c>
+      <c r="L61">
+        <v>5.56</v>
+      </c>
+      <c r="M61">
+        <v>0.9493808</v>
+      </c>
+      <c r="N61">
+        <v>4.610619199999999</v>
+      </c>
+      <c r="O61">
+        <v>0.7838052639999999</v>
+      </c>
+      <c r="P61">
+        <v>3.826813936</v>
+      </c>
+      <c r="Q61">
+        <v>7.446813936</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0.0226</v>
+      </c>
+      <c r="V61">
+        <v>0.17</v>
+      </c>
+      <c r="W61">
+        <v>0.018758</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>5.856448750596178</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.0149748</v>
+      </c>
+      <c r="C62">
+        <v>48.79513862061285</v>
+      </c>
+      <c r="D62">
+        <v>83.90513862061285</v>
+      </c>
+      <c r="E62">
+        <v>-28.48</v>
+      </c>
+      <c r="F62">
+        <v>42.72</v>
+      </c>
+      <c r="G62">
+        <v>7.61</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>9.18</v>
+      </c>
+      <c r="K62">
+        <v>3.62</v>
+      </c>
+      <c r="L62">
+        <v>5.56</v>
+      </c>
+      <c r="M62">
+        <v>0.9654719999999999</v>
+      </c>
+      <c r="N62">
+        <v>4.594528</v>
+      </c>
+      <c r="O62">
+        <v>0.7810697599999999</v>
+      </c>
+      <c r="P62">
+        <v>3.81345824</v>
+      </c>
+      <c r="Q62">
+        <v>7.43345824</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.17</v>
+      </c>
+      <c r="W62">
+        <v>0.018758</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>5.758841271419575</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.01506938</v>
+      </c>
+      <c r="C63">
+        <v>47.82805404187901</v>
+      </c>
+      <c r="D63">
+        <v>83.65005404187902</v>
+      </c>
+      <c r="E63">
+        <v>-27.768</v>
+      </c>
+      <c r="F63">
+        <v>43.432</v>
+      </c>
+      <c r="G63">
+        <v>7.61</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>9.18</v>
+      </c>
+      <c r="K63">
+        <v>3.62</v>
+      </c>
+      <c r="L63">
+        <v>5.56</v>
+      </c>
+      <c r="M63">
+        <v>0.9815632</v>
+      </c>
+      <c r="N63">
+        <v>4.5784368</v>
+      </c>
+      <c r="O63">
+        <v>0.7783342559999999</v>
+      </c>
+      <c r="P63">
+        <v>3.800102544</v>
+      </c>
+      <c r="Q63">
+        <v>7.420102544</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.17</v>
+      </c>
+      <c r="W63">
+        <v>0.018758</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>5.664434037461877</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.01516396</v>
+      </c>
+      <c r="C64">
+        <v>46.86251575520182</v>
+      </c>
+      <c r="D64">
+        <v>83.39651575520182</v>
+      </c>
+      <c r="E64">
+        <v>-27.056</v>
+      </c>
+      <c r="F64">
+        <v>44.144</v>
+      </c>
+      <c r="G64">
+        <v>7.61</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>9.18</v>
+      </c>
+      <c r="K64">
+        <v>3.62</v>
+      </c>
+      <c r="L64">
+        <v>5.56</v>
+      </c>
+      <c r="M64">
+        <v>0.9976543999999999</v>
+      </c>
+      <c r="N64">
+        <v>4.5623456</v>
+      </c>
+      <c r="O64">
+        <v>0.7755987519999999</v>
+      </c>
+      <c r="P64">
+        <v>3.786746847999999</v>
+      </c>
+      <c r="Q64">
+        <v>7.406746847999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.17</v>
+      </c>
+      <c r="W64">
+        <v>0.018758</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.573072198147976</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.01525854</v>
+      </c>
+      <c r="C65">
+        <v>45.89850974291303</v>
+      </c>
+      <c r="D65">
+        <v>83.14450974291303</v>
+      </c>
+      <c r="E65">
+        <v>-26.344</v>
+      </c>
+      <c r="F65">
+        <v>44.856</v>
+      </c>
+      <c r="G65">
+        <v>7.61</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>9.18</v>
+      </c>
+      <c r="K65">
+        <v>3.62</v>
+      </c>
+      <c r="L65">
+        <v>5.56</v>
+      </c>
+      <c r="M65">
+        <v>1.0137456</v>
+      </c>
+      <c r="N65">
+        <v>4.5462544</v>
+      </c>
+      <c r="O65">
+        <v>0.7728632479999999</v>
+      </c>
+      <c r="P65">
+        <v>3.773391151999999</v>
+      </c>
+      <c r="Q65">
+        <v>7.393391152</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.17</v>
+      </c>
+      <c r="W65">
+        <v>0.018758</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.484610734685309</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.01535312</v>
+      </c>
+      <c r="C66">
+        <v>44.93602215626735</v>
+      </c>
+      <c r="D66">
+        <v>82.89402215626735</v>
+      </c>
+      <c r="E66">
+        <v>-25.632</v>
+      </c>
+      <c r="F66">
+        <v>45.568</v>
+      </c>
+      <c r="G66">
+        <v>7.61</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>9.18</v>
+      </c>
+      <c r="K66">
+        <v>3.62</v>
+      </c>
+      <c r="L66">
+        <v>5.56</v>
+      </c>
+      <c r="M66">
+        <v>1.0298368</v>
+      </c>
+      <c r="N66">
+        <v>4.5301632</v>
+      </c>
+      <c r="O66">
+        <v>0.7701277439999999</v>
+      </c>
+      <c r="P66">
+        <v>3.760035456</v>
+      </c>
+      <c r="Q66">
+        <v>7.380035456</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.17</v>
+      </c>
+      <c r="W66">
+        <v>0.018758</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.398913691955851</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.0154477</v>
+      </c>
+      <c r="C67">
+        <v>43.97503931290539</v>
+      </c>
+      <c r="D67">
+        <v>82.6450393129054</v>
+      </c>
+      <c r="E67">
+        <v>-24.92</v>
+      </c>
+      <c r="F67">
+        <v>46.28</v>
+      </c>
+      <c r="G67">
+        <v>7.61</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>9.18</v>
+      </c>
+      <c r="K67">
+        <v>3.62</v>
+      </c>
+      <c r="L67">
+        <v>5.56</v>
+      </c>
+      <c r="M67">
+        <v>1.045928</v>
+      </c>
+      <c r="N67">
+        <v>4.514072</v>
+      </c>
+      <c r="O67">
+        <v>0.7673922399999999</v>
+      </c>
+      <c r="P67">
+        <v>3.74667976</v>
+      </c>
+      <c r="Q67">
+        <v>7.36667976</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.17</v>
+      </c>
+      <c r="W67">
+        <v>0.018758</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.315853481310377</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.01554228</v>
+      </c>
+      <c r="C68">
+        <v>43.01554769436237</v>
+      </c>
+      <c r="D68">
+        <v>82.39754769436237</v>
+      </c>
+      <c r="E68">
+        <v>-24.208</v>
+      </c>
+      <c r="F68">
+        <v>46.992</v>
+      </c>
+      <c r="G68">
+        <v>7.61</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>9.18</v>
+      </c>
+      <c r="K68">
+        <v>3.62</v>
+      </c>
+      <c r="L68">
+        <v>5.56</v>
+      </c>
+      <c r="M68">
+        <v>1.0620192</v>
+      </c>
+      <c r="N68">
+        <v>4.4979808</v>
+      </c>
+      <c r="O68">
+        <v>0.7646567359999999</v>
+      </c>
+      <c r="P68">
+        <v>3.733324064</v>
+      </c>
+      <c r="Q68">
+        <v>7.353324064</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.17</v>
+      </c>
+      <c r="W68">
+        <v>0.018758</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>5.235310246745068</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.01563686</v>
+      </c>
+      <c r="C69">
+        <v>42.05753394362145</v>
+      </c>
+      <c r="D69">
+        <v>82.15153394362146</v>
+      </c>
+      <c r="E69">
+        <v>-23.496</v>
+      </c>
+      <c r="F69">
+        <v>47.70400000000001</v>
+      </c>
+      <c r="G69">
+        <v>7.61</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>9.18</v>
+      </c>
+      <c r="K69">
+        <v>3.62</v>
+      </c>
+      <c r="L69">
+        <v>5.56</v>
+      </c>
+      <c r="M69">
+        <v>1.0781104</v>
+      </c>
+      <c r="N69">
+        <v>4.4818896</v>
+      </c>
+      <c r="O69">
+        <v>0.7619212319999999</v>
+      </c>
+      <c r="P69">
+        <v>3.719968368</v>
+      </c>
+      <c r="Q69">
+        <v>7.339968368</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.17</v>
+      </c>
+      <c r="W69">
+        <v>0.018758</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>5.157171287838425</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.01573144</v>
+      </c>
+      <c r="C70">
+        <v>41.10098486271072</v>
+      </c>
+      <c r="D70">
+        <v>81.90698486271073</v>
+      </c>
+      <c r="E70">
+        <v>-22.784</v>
+      </c>
+      <c r="F70">
+        <v>48.416</v>
+      </c>
+      <c r="G70">
+        <v>7.61</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>9.18</v>
+      </c>
+      <c r="K70">
+        <v>3.62</v>
+      </c>
+      <c r="L70">
+        <v>5.56</v>
+      </c>
+      <c r="M70">
+        <v>1.0942016</v>
+      </c>
+      <c r="N70">
+        <v>4.4657984</v>
+      </c>
+      <c r="O70">
+        <v>0.7591857280000001</v>
+      </c>
+      <c r="P70">
+        <v>3.706612671999999</v>
+      </c>
+      <c r="Q70">
+        <v>7.326612672</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.17</v>
+      </c>
+      <c r="W70">
+        <v>0.018758</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>5.081330533605507</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.01582602</v>
+      </c>
+      <c r="C71">
+        <v>40.14588741034297</v>
+      </c>
+      <c r="D71">
+        <v>81.66388741034298</v>
+      </c>
+      <c r="E71">
+        <v>-22.072</v>
+      </c>
+      <c r="F71">
+        <v>49.12800000000001</v>
+      </c>
+      <c r="G71">
+        <v>7.61</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>9.18</v>
+      </c>
+      <c r="K71">
+        <v>3.62</v>
+      </c>
+      <c r="L71">
+        <v>5.56</v>
+      </c>
+      <c r="M71">
+        <v>1.1102928</v>
+      </c>
+      <c r="N71">
+        <v>4.4497072</v>
+      </c>
+      <c r="O71">
+        <v>0.7564502240000001</v>
+      </c>
+      <c r="P71">
+        <v>3.693256976</v>
+      </c>
+      <c r="Q71">
+        <v>7.313256976</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.17</v>
+      </c>
+      <c r="W71">
+        <v>0.018758</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>5.007688062103978</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.0159206</v>
+      </c>
+      <c r="C72">
+        <v>39.19222869959744</v>
+      </c>
+      <c r="D72">
+        <v>81.42222869959744</v>
+      </c>
+      <c r="E72">
+        <v>-21.36</v>
+      </c>
+      <c r="F72">
+        <v>49.84</v>
+      </c>
+      <c r="G72">
+        <v>7.61</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>9.18</v>
+      </c>
+      <c r="K72">
+        <v>3.62</v>
+      </c>
+      <c r="L72">
+        <v>5.56</v>
+      </c>
+      <c r="M72">
+        <v>1.126384</v>
+      </c>
+      <c r="N72">
+        <v>4.433616</v>
+      </c>
+      <c r="O72">
+        <v>0.7537147200000001</v>
+      </c>
+      <c r="P72">
+        <v>3.67990128</v>
+      </c>
+      <c r="Q72">
+        <v>7.29990128</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.17</v>
+      </c>
+      <c r="W72">
+        <v>0.018758</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>4.936149661216778</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.01601518</v>
+      </c>
+      <c r="C73">
+        <v>38.23999599564255</v>
+      </c>
+      <c r="D73">
+        <v>81.18199599564255</v>
+      </c>
+      <c r="E73">
+        <v>-20.648</v>
+      </c>
+      <c r="F73">
+        <v>50.552</v>
+      </c>
+      <c r="G73">
+        <v>7.61</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>9.18</v>
+      </c>
+      <c r="K73">
+        <v>3.62</v>
+      </c>
+      <c r="L73">
+        <v>5.56</v>
+      </c>
+      <c r="M73">
+        <v>1.1424752</v>
+      </c>
+      <c r="N73">
+        <v>4.4175248</v>
+      </c>
+      <c r="O73">
+        <v>0.7509792160000001</v>
+      </c>
+      <c r="P73">
+        <v>3.666545584</v>
+      </c>
+      <c r="Q73">
+        <v>7.286545584</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.17</v>
+      </c>
+      <c r="W73">
+        <v>0.018758</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>4.866626426551753</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.01610976</v>
+      </c>
+      <c r="C74">
+        <v>37.28917671349877</v>
+      </c>
+      <c r="D74">
+        <v>80.94317671349877</v>
+      </c>
+      <c r="E74">
+        <v>-19.936</v>
+      </c>
+      <c r="F74">
+        <v>51.264</v>
+      </c>
+      <c r="G74">
+        <v>7.61</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>9.18</v>
+      </c>
+      <c r="K74">
+        <v>3.62</v>
+      </c>
+      <c r="L74">
+        <v>5.56</v>
+      </c>
+      <c r="M74">
+        <v>1.1585664</v>
+      </c>
+      <c r="N74">
+        <v>4.4014336</v>
+      </c>
+      <c r="O74">
+        <v>0.7482437120000001</v>
+      </c>
+      <c r="P74">
+        <v>3.653189888</v>
+      </c>
+      <c r="Q74">
+        <v>7.273189888</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.17</v>
+      </c>
+      <c r="W74">
+        <v>0.018758</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>4.799034392849646</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.01620434</v>
+      </c>
+      <c r="C75">
+        <v>36.33975841584108</v>
+      </c>
+      <c r="D75">
+        <v>80.70575841584107</v>
+      </c>
+      <c r="E75">
+        <v>-19.224</v>
+      </c>
+      <c r="F75">
+        <v>51.976</v>
+      </c>
+      <c r="G75">
+        <v>7.61</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>9.18</v>
+      </c>
+      <c r="K75">
+        <v>3.62</v>
+      </c>
+      <c r="L75">
+        <v>5.56</v>
+      </c>
+      <c r="M75">
+        <v>1.1746576</v>
+      </c>
+      <c r="N75">
+        <v>4.3853424</v>
+      </c>
+      <c r="O75">
+        <v>0.7455082080000001</v>
+      </c>
+      <c r="P75">
+        <v>3.639834192</v>
+      </c>
+      <c r="Q75">
+        <v>7.259834192</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.17</v>
+      </c>
+      <c r="W75">
+        <v>0.018758</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>4.733294195687321</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.01629892</v>
+      </c>
+      <c r="C76">
+        <v>35.39172881083967</v>
+      </c>
+      <c r="D76">
+        <v>80.46972881083967</v>
+      </c>
+      <c r="E76">
+        <v>-18.512</v>
+      </c>
+      <c r="F76">
+        <v>52.688</v>
+      </c>
+      <c r="G76">
+        <v>7.61</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>9.18</v>
+      </c>
+      <c r="K76">
+        <v>3.62</v>
+      </c>
+      <c r="L76">
+        <v>5.56</v>
+      </c>
+      <c r="M76">
+        <v>1.1907488</v>
+      </c>
+      <c r="N76">
+        <v>4.3692512</v>
+      </c>
+      <c r="O76">
+        <v>0.7427727040000001</v>
+      </c>
+      <c r="P76">
+        <v>3.626478496</v>
+      </c>
+      <c r="Q76">
+        <v>7.246478496</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.17</v>
+      </c>
+      <c r="W76">
+        <v>0.018758</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>4.669330760610467</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.0163935</v>
+      </c>
+      <c r="C77">
+        <v>34.4450757500387</v>
+      </c>
+      <c r="D77">
+        <v>80.2350757500387</v>
+      </c>
+      <c r="E77">
+        <v>-17.8</v>
+      </c>
+      <c r="F77">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="G77">
+        <v>7.61</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>9.18</v>
+      </c>
+      <c r="K77">
+        <v>3.62</v>
+      </c>
+      <c r="L77">
+        <v>5.56</v>
+      </c>
+      <c r="M77">
+        <v>1.20684</v>
+      </c>
+      <c r="N77">
+        <v>4.353159999999999</v>
+      </c>
+      <c r="O77">
+        <v>0.7400371999999998</v>
+      </c>
+      <c r="P77">
+        <v>3.613122799999999</v>
+      </c>
+      <c r="Q77">
+        <v>7.233122799999999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.17</v>
+      </c>
+      <c r="W77">
+        <v>0.018758</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>4.607073017135659</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.01648808</v>
+      </c>
+      <c r="C78">
+        <v>33.49978722627196</v>
+      </c>
+      <c r="D78">
+        <v>80.00178722627196</v>
+      </c>
+      <c r="E78">
+        <v>-17.088</v>
+      </c>
+      <c r="F78">
+        <v>54.112</v>
+      </c>
+      <c r="G78">
+        <v>7.61</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>9.18</v>
+      </c>
+      <c r="K78">
+        <v>3.62</v>
+      </c>
+      <c r="L78">
+        <v>5.56</v>
+      </c>
+      <c r="M78">
+        <v>1.2229312</v>
+      </c>
+      <c r="N78">
+        <v>4.3370688</v>
+      </c>
+      <c r="O78">
+        <v>0.7373016960000001</v>
+      </c>
+      <c r="P78">
+        <v>3.599767104</v>
+      </c>
+      <c r="Q78">
+        <v>7.219767104</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.17</v>
+      </c>
+      <c r="W78">
+        <v>0.018758</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>4.546453635331243</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.0727937191011236</v>
+      </c>
+      <c r="C79">
+        <v>-17.91938898951308</v>
+      </c>
+      <c r="D79">
+        <v>29.29461101048692</v>
+      </c>
+      <c r="E79">
+        <v>-16.376</v>
+      </c>
+      <c r="F79">
+        <v>54.82400000000001</v>
+      </c>
+      <c r="G79">
+        <v>7.61</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>9.18</v>
+      </c>
+      <c r="K79">
+        <v>3.62</v>
+      </c>
+      <c r="L79">
+        <v>5.56</v>
+      </c>
+      <c r="M79">
+        <v>5.975816000000001</v>
+      </c>
+      <c r="N79">
+        <v>-0.4158160000000013</v>
+      </c>
+      <c r="O79">
+        <v>-0.07068872000000022</v>
+      </c>
+      <c r="P79">
+        <v>-0.3451272800000011</v>
+      </c>
+      <c r="Q79">
+        <v>3.274872719999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0.109</v>
+      </c>
+      <c r="V79">
+        <v>0.1581708673761039</v>
+      </c>
+      <c r="W79">
+        <v>0.09175937545600467</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.9304168669182583</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.0737907191011236</v>
+      </c>
+      <c r="C80">
+        <v>-18.95651652707622</v>
+      </c>
+      <c r="D80">
+        <v>28.96948347292378</v>
+      </c>
+      <c r="E80">
+        <v>-15.664</v>
+      </c>
+      <c r="F80">
+        <v>55.536</v>
+      </c>
+      <c r="G80">
+        <v>7.61</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>9.18</v>
+      </c>
+      <c r="K80">
+        <v>3.62</v>
+      </c>
+      <c r="L80">
+        <v>5.56</v>
+      </c>
+      <c r="M80">
+        <v>6.053424</v>
+      </c>
+      <c r="N80">
+        <v>-0.4934240000000001</v>
+      </c>
+      <c r="O80">
+        <v>-0.08388208000000003</v>
+      </c>
+      <c r="P80">
+        <v>-0.4095419200000001</v>
+      </c>
+      <c r="Q80">
+        <v>3.21045808</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0.109</v>
+      </c>
+      <c r="V80">
+        <v>0.156143035743077</v>
+      </c>
+      <c r="W80">
+        <v>0.09198040910400461</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.9184884455475116</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.0747877191011236</v>
+      </c>
+      <c r="C81">
+        <v>-19.98650639760626</v>
+      </c>
+      <c r="D81">
+        <v>28.65149360239375</v>
+      </c>
+      <c r="E81">
+        <v>-14.952</v>
+      </c>
+      <c r="F81">
+        <v>56.248</v>
+      </c>
+      <c r="G81">
+        <v>7.61</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>9.18</v>
+      </c>
+      <c r="K81">
+        <v>3.62</v>
+      </c>
+      <c r="L81">
+        <v>5.56</v>
+      </c>
+      <c r="M81">
+        <v>6.131032</v>
+      </c>
+      <c r="N81">
+        <v>-0.5710320000000007</v>
+      </c>
+      <c r="O81">
+        <v>-0.09707544000000012</v>
+      </c>
+      <c r="P81">
+        <v>-0.4739565600000005</v>
+      </c>
+      <c r="Q81">
+        <v>3.14604344</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0.109</v>
+      </c>
+      <c r="V81">
+        <v>0.1541665416197469</v>
+      </c>
+      <c r="W81">
+        <v>0.0921958469634476</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.9068620095279227</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.0757847191011236</v>
+      </c>
+      <c r="C82">
+        <v>-21.00959109358785</v>
+      </c>
+      <c r="D82">
+        <v>28.34040890641215</v>
+      </c>
+      <c r="E82">
+        <v>-14.23999999999999</v>
+      </c>
+      <c r="F82">
+        <v>56.96000000000001</v>
+      </c>
+      <c r="G82">
+        <v>7.61</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>9.18</v>
+      </c>
+      <c r="K82">
+        <v>3.62</v>
+      </c>
+      <c r="L82">
+        <v>5.56</v>
+      </c>
+      <c r="M82">
+        <v>6.208640000000001</v>
+      </c>
+      <c r="N82">
+        <v>-0.6486400000000012</v>
+      </c>
+      <c r="O82">
+        <v>-0.1102688000000002</v>
+      </c>
+      <c r="P82">
+        <v>-0.538371200000001</v>
+      </c>
+      <c r="Q82">
+        <v>3.081628799999999</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0.109</v>
+      </c>
+      <c r="V82">
+        <v>0.1522394598495</v>
+      </c>
+      <c r="W82">
+        <v>0.09240589887640449</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.8955262344088236</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.07678171910112361</v>
+      </c>
+      <c r="C83">
+        <v>-22.02599311877425</v>
+      </c>
+      <c r="D83">
+        <v>28.03600688122575</v>
+      </c>
+      <c r="E83">
+        <v>-13.528</v>
+      </c>
+      <c r="F83">
+        <v>57.672</v>
+      </c>
+      <c r="G83">
+        <v>7.61</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>9.18</v>
+      </c>
+      <c r="K83">
+        <v>3.62</v>
+      </c>
+      <c r="L83">
+        <v>5.56</v>
+      </c>
+      <c r="M83">
+        <v>6.286248000000001</v>
+      </c>
+      <c r="N83">
+        <v>-0.7262480000000009</v>
+      </c>
+      <c r="O83">
+        <v>-0.1234621600000002</v>
+      </c>
+      <c r="P83">
+        <v>-0.6027858400000008</v>
+      </c>
+      <c r="Q83">
+        <v>3.017214159999999</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>0.1503599603451852</v>
+      </c>
+      <c r="W83">
+        <v>0.09261076432237481</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.8844703549716777</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.07777871910112359</v>
+      </c>
+      <c r="C84">
+        <v>-23.03592551892743</v>
+      </c>
+      <c r="D84">
+        <v>27.73807448107258</v>
+      </c>
+      <c r="E84">
+        <v>-12.816</v>
+      </c>
+      <c r="F84">
+        <v>58.38400000000001</v>
+      </c>
+      <c r="G84">
+        <v>7.61</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>9.18</v>
+      </c>
+      <c r="K84">
+        <v>3.62</v>
+      </c>
+      <c r="L84">
+        <v>5.56</v>
+      </c>
+      <c r="M84">
+        <v>6.363856000000001</v>
+      </c>
+      <c r="N84">
+        <v>-0.8038560000000015</v>
+      </c>
+      <c r="O84">
+        <v>-0.1366555200000003</v>
+      </c>
+      <c r="P84">
+        <v>-0.6672004800000012</v>
+      </c>
+      <c r="Q84">
+        <v>2.952799519999999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0.109</v>
+      </c>
+      <c r="V84">
+        <v>0.1485263022921952</v>
+      </c>
+      <c r="W84">
+        <v>0.09281063305015072</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.8736841311305596</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.0787757191011236</v>
+      </c>
+      <c r="C85">
+        <v>-24.03959237907365</v>
+      </c>
+      <c r="D85">
+        <v>27.44640762092635</v>
+      </c>
+      <c r="E85">
+        <v>-12.10399999999999</v>
+      </c>
+      <c r="F85">
+        <v>59.09600000000001</v>
+      </c>
+      <c r="G85">
+        <v>7.61</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>9.18</v>
+      </c>
+      <c r="K85">
+        <v>3.62</v>
+      </c>
+      <c r="L85">
+        <v>5.56</v>
+      </c>
+      <c r="M85">
+        <v>6.441464000000001</v>
+      </c>
+      <c r="N85">
+        <v>-0.8814640000000011</v>
+      </c>
+      <c r="O85">
+        <v>-0.1498488800000002</v>
+      </c>
+      <c r="P85">
+        <v>-0.731615120000001</v>
+      </c>
+      <c r="Q85">
+        <v>2.888384879999999</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.1467368287706025</v>
+      </c>
+      <c r="W85">
+        <v>0.09300568566400433</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.8631578162976614</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.0797727191011236</v>
+      </c>
+      <c r="C86">
+        <v>-25.03718928971359</v>
+      </c>
+      <c r="D86">
+        <v>27.16081071028641</v>
+      </c>
+      <c r="E86">
+        <v>-11.392</v>
+      </c>
+      <c r="F86">
+        <v>59.808</v>
+      </c>
+      <c r="G86">
+        <v>7.61</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>9.18</v>
+      </c>
+      <c r="K86">
+        <v>3.62</v>
+      </c>
+      <c r="L86">
+        <v>5.56</v>
+      </c>
+      <c r="M86">
+        <v>6.519072</v>
+      </c>
+      <c r="N86">
+        <v>-0.9590719999999999</v>
+      </c>
+      <c r="O86">
+        <v>-0.16304224</v>
+      </c>
+      <c r="P86">
+        <v>-0.7960297599999999</v>
+      </c>
+      <c r="Q86">
+        <v>2.82397024</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.1449899617614286</v>
+      </c>
+      <c r="W86">
+        <v>0.09319609416800428</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.8528821280084037</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.08076971910112359</v>
+      </c>
+      <c r="C87">
+        <v>-26.02890378422497</v>
+      </c>
+      <c r="D87">
+        <v>26.88109621577504</v>
+      </c>
+      <c r="E87">
+        <v>-10.68</v>
+      </c>
+      <c r="F87">
+        <v>60.52</v>
+      </c>
+      <c r="G87">
+        <v>7.61</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>9.18</v>
+      </c>
+      <c r="K87">
+        <v>3.62</v>
+      </c>
+      <c r="L87">
+        <v>5.56</v>
+      </c>
+      <c r="M87">
+        <v>6.59668</v>
+      </c>
+      <c r="N87">
+        <v>-1.03668</v>
+      </c>
+      <c r="O87">
+        <v>-0.1762356000000001</v>
+      </c>
+      <c r="P87">
+        <v>-0.8604444000000004</v>
+      </c>
+      <c r="Q87">
+        <v>2.7595556</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.1432841975054118</v>
+      </c>
+      <c r="W87">
+        <v>0.09338202247191012</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.8428482206200694</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.0817667191011236</v>
+      </c>
+      <c r="C88">
+        <v>-27.01491574951317</v>
+      </c>
+      <c r="D88">
+        <v>26.60708425048682</v>
+      </c>
+      <c r="E88">
+        <v>-9.968000000000004</v>
+      </c>
+      <c r="F88">
+        <v>61.232</v>
+      </c>
+      <c r="G88">
+        <v>7.61</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>9.18</v>
+      </c>
+      <c r="K88">
+        <v>3.62</v>
+      </c>
+      <c r="L88">
+        <v>5.56</v>
+      </c>
+      <c r="M88">
+        <v>6.674288</v>
+      </c>
+      <c r="N88">
+        <v>-1.114288</v>
+      </c>
+      <c r="O88">
+        <v>-0.18942896</v>
+      </c>
+      <c r="P88">
+        <v>-0.9248590400000001</v>
+      </c>
+      <c r="Q88">
+        <v>2.69514096</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0.109</v>
+      </c>
+      <c r="V88">
+        <v>0.1416181021855814</v>
+      </c>
+      <c r="W88">
+        <v>0.09356362686177162</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.8330476599151849</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.0827637191011236</v>
+      </c>
+      <c r="C89">
+        <v>-27.99539781179966</v>
+      </c>
+      <c r="D89">
+        <v>26.33860218820034</v>
+      </c>
+      <c r="E89">
+        <v>-9.256</v>
+      </c>
+      <c r="F89">
+        <v>61.944</v>
+      </c>
+      <c r="G89">
+        <v>7.61</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>9.18</v>
+      </c>
+      <c r="K89">
+        <v>3.62</v>
+      </c>
+      <c r="L89">
+        <v>5.56</v>
+      </c>
+      <c r="M89">
+        <v>6.751896</v>
+      </c>
+      <c r="N89">
+        <v>-1.191896000000001</v>
+      </c>
+      <c r="O89">
+        <v>-0.2026223200000001</v>
+      </c>
+      <c r="P89">
+        <v>-0.9892736800000006</v>
+      </c>
+      <c r="Q89">
+        <v>2.63072632</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0.109</v>
+      </c>
+      <c r="V89">
+        <v>0.1399903079075862</v>
+      </c>
+      <c r="W89">
+        <v>0.09374105643807309</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.8234723994563896</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.08376071910112361</v>
+      </c>
+      <c r="C90">
+        <v>-28.97051569928659</v>
+      </c>
+      <c r="D90">
+        <v>26.07548430071341</v>
+      </c>
+      <c r="E90">
+        <v>-8.543999999999997</v>
+      </c>
+      <c r="F90">
+        <v>62.65600000000001</v>
+      </c>
+      <c r="G90">
+        <v>7.61</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>9.18</v>
+      </c>
+      <c r="K90">
+        <v>3.62</v>
+      </c>
+      <c r="L90">
+        <v>5.56</v>
+      </c>
+      <c r="M90">
+        <v>6.829504000000001</v>
+      </c>
+      <c r="N90">
+        <v>-1.269504000000001</v>
+      </c>
+      <c r="O90">
+        <v>-0.2158156800000002</v>
+      </c>
+      <c r="P90">
+        <v>-1.053688320000001</v>
+      </c>
+      <c r="Q90">
+        <v>2.566311679999999</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0.109</v>
+      </c>
+      <c r="V90">
+        <v>0.1383995089540909</v>
+      </c>
+      <c r="W90">
+        <v>0.09391445352400409</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.814114758553476</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.08475771910112359</v>
+      </c>
+      <c r="C91">
+        <v>-29.94042858329865</v>
+      </c>
+      <c r="D91">
+        <v>25.81757141670135</v>
+      </c>
+      <c r="E91">
+        <v>-7.832000000000001</v>
+      </c>
+      <c r="F91">
+        <v>63.368</v>
+      </c>
+      <c r="G91">
+        <v>7.61</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>9.18</v>
+      </c>
+      <c r="K91">
+        <v>3.62</v>
+      </c>
+      <c r="L91">
+        <v>5.56</v>
+      </c>
+      <c r="M91">
+        <v>6.907112000000001</v>
+      </c>
+      <c r="N91">
+        <v>-1.347112000000001</v>
+      </c>
+      <c r="O91">
+        <v>-0.2290090400000002</v>
+      </c>
+      <c r="P91">
+        <v>-1.118102960000001</v>
+      </c>
+      <c r="Q91">
+        <v>2.501897039999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0.109</v>
+      </c>
+      <c r="V91">
+        <v>0.1368444582916854</v>
+      </c>
+      <c r="W91">
+        <v>0.09408395404620629</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.8049674017157966</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1138347191011236</v>
+      </c>
+      <c r="C92">
+        <v>-36.43255602225179</v>
+      </c>
+      <c r="D92">
+        <v>20.03744397774821</v>
+      </c>
+      <c r="E92">
+        <v>-7.120000000000005</v>
+      </c>
+      <c r="F92">
+        <v>64.08</v>
+      </c>
+      <c r="G92">
+        <v>7.61</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>9.18</v>
+      </c>
+      <c r="K92">
+        <v>3.62</v>
+      </c>
+      <c r="L92">
+        <v>5.56</v>
+      </c>
+      <c r="M92">
+        <v>8.984015999999999</v>
+      </c>
+      <c r="N92">
+        <v>-3.424015999999999</v>
+      </c>
+      <c r="O92">
+        <v>-0.5820827199999998</v>
+      </c>
+      <c r="P92">
+        <v>-2.841933279999999</v>
+      </c>
+      <c r="Q92">
+        <v>0.7780667200000009</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.1052090735368236</v>
+      </c>
+      <c r="W92">
+        <v>0.1254496878901373</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.6188769031577861</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1151437191011236</v>
+      </c>
+      <c r="C93">
+        <v>-37.34449575601866</v>
+      </c>
+      <c r="D93">
+        <v>19.83750424398134</v>
+      </c>
+      <c r="E93">
+        <v>-6.408000000000001</v>
+      </c>
+      <c r="F93">
+        <v>64.792</v>
+      </c>
+      <c r="G93">
+        <v>7.61</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>9.18</v>
+      </c>
+      <c r="K93">
+        <v>3.62</v>
+      </c>
+      <c r="L93">
+        <v>5.56</v>
+      </c>
+      <c r="M93">
+        <v>9.083838399999999</v>
+      </c>
+      <c r="N93">
+        <v>-3.5238384</v>
+      </c>
+      <c r="O93">
+        <v>-0.599052528</v>
+      </c>
+      <c r="P93">
+        <v>-2.924785872</v>
+      </c>
+      <c r="Q93">
+        <v>0.6952141280000004</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.1040529298715838</v>
+      </c>
+      <c r="W93">
+        <v>0.125611779232004</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.61207605806814</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1164527191011236</v>
+      </c>
+      <c r="C94">
+        <v>-38.25248479164108</v>
+      </c>
+      <c r="D94">
+        <v>19.64151520835892</v>
+      </c>
+      <c r="E94">
+        <v>-5.695999999999998</v>
+      </c>
+      <c r="F94">
+        <v>65.504</v>
+      </c>
+      <c r="G94">
+        <v>7.61</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>9.18</v>
+      </c>
+      <c r="K94">
+        <v>3.62</v>
+      </c>
+      <c r="L94">
+        <v>5.56</v>
+      </c>
+      <c r="M94">
+        <v>9.1836608</v>
+      </c>
+      <c r="N94">
+        <v>-3.623660800000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.6160223360000001</v>
+      </c>
+      <c r="P94">
+        <v>-3.007638464</v>
+      </c>
+      <c r="Q94">
+        <v>0.6123615359999999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.102921919764284</v>
+      </c>
+      <c r="W94">
+        <v>0.1257703468490474</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.6054230574369646</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1177617191011236</v>
+      </c>
+      <c r="C95">
+        <v>-39.15663907896993</v>
+      </c>
+      <c r="D95">
+        <v>19.44936092103008</v>
+      </c>
+      <c r="E95">
+        <v>-4.983999999999995</v>
+      </c>
+      <c r="F95">
+        <v>66.21600000000001</v>
+      </c>
+      <c r="G95">
+        <v>7.61</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>9.18</v>
+      </c>
+      <c r="K95">
+        <v>3.62</v>
+      </c>
+      <c r="L95">
+        <v>5.56</v>
+      </c>
+      <c r="M95">
+        <v>9.283483200000001</v>
+      </c>
+      <c r="N95">
+        <v>-3.723483200000001</v>
+      </c>
+      <c r="O95">
+        <v>-0.6329921440000003</v>
+      </c>
+      <c r="P95">
+        <v>-3.090491056000001</v>
+      </c>
+      <c r="Q95">
+        <v>0.5295089439999989</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.1018152324549906</v>
+      </c>
+      <c r="W95">
+        <v>0.1259255044098103</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.59891313208818</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1190707191011236</v>
+      </c>
+      <c r="C96">
+        <v>-40.05707007443422</v>
+      </c>
+      <c r="D96">
+        <v>19.26092992556579</v>
+      </c>
+      <c r="E96">
+        <v>-4.271999999999991</v>
+      </c>
+      <c r="F96">
+        <v>66.92800000000001</v>
+      </c>
+      <c r="G96">
+        <v>7.61</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>9.18</v>
+      </c>
+      <c r="K96">
+        <v>3.62</v>
+      </c>
+      <c r="L96">
+        <v>5.56</v>
+      </c>
+      <c r="M96">
+        <v>9.383305600000002</v>
+      </c>
+      <c r="N96">
+        <v>-3.823305600000002</v>
+      </c>
+      <c r="O96">
+        <v>-0.6499619520000004</v>
+      </c>
+      <c r="P96">
+        <v>-3.173343648000002</v>
+      </c>
+      <c r="Q96">
+        <v>0.4466563519999984</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.1007320916841928</v>
+      </c>
+      <c r="W96">
+        <v>0.1260773607458762</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.5925417157893694</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1203797191011236</v>
+      </c>
+      <c r="C97">
+        <v>-40.95388495662032</v>
+      </c>
+      <c r="D97">
+        <v>19.07611504337968</v>
+      </c>
+      <c r="E97">
+        <v>-3.560000000000002</v>
+      </c>
+      <c r="F97">
+        <v>67.64</v>
+      </c>
+      <c r="G97">
+        <v>7.61</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>9.18</v>
+      </c>
+      <c r="K97">
+        <v>3.62</v>
+      </c>
+      <c r="L97">
+        <v>5.56</v>
+      </c>
+      <c r="M97">
+        <v>9.483127999999999</v>
+      </c>
+      <c r="N97">
+        <v>-3.923127999999999</v>
+      </c>
+      <c r="O97">
+        <v>-0.6669317599999999</v>
+      </c>
+      <c r="P97">
+        <v>-3.25619624</v>
+      </c>
+      <c r="Q97">
+        <v>0.3638037600000006</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.09967175387699082</v>
+      </c>
+      <c r="W97">
+        <v>0.1262260201064459</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.5863044345705342</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1216887191011236</v>
+      </c>
+      <c r="C98">
+        <v>-41.84718682955786</v>
+      </c>
+      <c r="D98">
+        <v>18.89481317044214</v>
+      </c>
+      <c r="E98">
+        <v>-2.847999999999999</v>
+      </c>
+      <c r="F98">
+        <v>68.352</v>
+      </c>
+      <c r="G98">
+        <v>7.61</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>9.18</v>
+      </c>
+      <c r="K98">
+        <v>3.62</v>
+      </c>
+      <c r="L98">
+        <v>5.56</v>
+      </c>
+      <c r="M98">
+        <v>9.5829504</v>
+      </c>
+      <c r="N98">
+        <v>-4.0229504</v>
+      </c>
+      <c r="O98">
+        <v>-0.683901568</v>
+      </c>
+      <c r="P98">
+        <v>-3.339048832</v>
+      </c>
+      <c r="Q98">
+        <v>0.2809511680000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.09863350644077215</v>
+      </c>
+      <c r="W98">
+        <v>0.1263715823970037</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.5801970967104244</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1229977191011236</v>
+      </c>
+      <c r="C99">
+        <v>-42.73707491452232</v>
+      </c>
+      <c r="D99">
+        <v>18.71692508547768</v>
+      </c>
+      <c r="E99">
+        <v>-2.135999999999996</v>
+      </c>
+      <c r="F99">
+        <v>69.06400000000001</v>
+      </c>
+      <c r="G99">
+        <v>7.61</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>9.18</v>
+      </c>
+      <c r="K99">
+        <v>3.62</v>
+      </c>
+      <c r="L99">
+        <v>5.56</v>
+      </c>
+      <c r="M99">
+        <v>9.6827728</v>
+      </c>
+      <c r="N99">
+        <v>-4.122772800000001</v>
+      </c>
+      <c r="O99">
+        <v>-0.7008713760000002</v>
+      </c>
+      <c r="P99">
+        <v>-3.421901424000001</v>
+      </c>
+      <c r="Q99">
+        <v>0.1980985759999996</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.09761666616818686</v>
+      </c>
+      <c r="W99">
+        <v>0.1265141434032202</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.5742156833422756</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1243067191011236</v>
+      </c>
+      <c r="C100">
+        <v>-43.62364473110429</v>
+      </c>
+      <c r="D100">
+        <v>18.54235526889571</v>
+      </c>
+      <c r="E100">
+        <v>-1.424000000000007</v>
+      </c>
+      <c r="F100">
+        <v>69.776</v>
+      </c>
+      <c r="G100">
+        <v>7.61</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>9.18</v>
+      </c>
+      <c r="K100">
+        <v>3.62</v>
+      </c>
+      <c r="L100">
+        <v>5.56</v>
+      </c>
+      <c r="M100">
+        <v>9.782595199999999</v>
+      </c>
+      <c r="N100">
+        <v>-4.2225952</v>
+      </c>
+      <c r="O100">
+        <v>-0.717841184</v>
+      </c>
+      <c r="P100">
+        <v>-3.504754016</v>
+      </c>
+      <c r="Q100">
+        <v>0.1152459840000004</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.09662057773789925</v>
+      </c>
+      <c r="W100">
+        <v>0.1266537950011465</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.5683563396347014</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1256157191011236</v>
+      </c>
+      <c r="C101">
+        <v>-44.50698826823941</v>
+      </c>
+      <c r="D101">
+        <v>18.37101173176059</v>
+      </c>
+      <c r="E101">
+        <v>-0.7120000000000033</v>
+      </c>
+      <c r="F101">
+        <v>70.488</v>
+      </c>
+      <c r="G101">
+        <v>7.61</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>9.18</v>
+      </c>
+      <c r="K101">
+        <v>3.62</v>
+      </c>
+      <c r="L101">
+        <v>5.56</v>
+      </c>
+      <c r="M101">
+        <v>9.8824176</v>
+      </c>
+      <c r="N101">
+        <v>-4.322417600000001</v>
+      </c>
+      <c r="O101">
+        <v>-0.7348109920000001</v>
+      </c>
+      <c r="P101">
+        <v>-3.587606608000001</v>
+      </c>
+      <c r="Q101">
+        <v>0.03239339199999947</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.09564461230620329</v>
+      </c>
+      <c r="W101">
+        <v>0.1267906253546703</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5626153665070781</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
